--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第二章 计算机图形硬件" sheetId="1" r:id="rId1"/>
     <sheet name="DX3D12" sheetId="2" r:id="rId2"/>
+    <sheet name="DX3D12初始化步骤" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1489,6 +1490,156 @@
       </rPr>
       <t>时，最后两个参数只需要填IID_PPV_ARGS辅助宏，即可扩展为两个对应参数</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DXGI_SWAP_CHAIN_DESC结构体，用于描述交换链的特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建ID3D12Device</t>
+  </si>
+  <si>
+    <t>HRESULT WINAPI D3D12CreateDevice(IUnknow* pAdapter,D3D_FEATURE_LEVEL MinimumFeatureLevel,REFIID riid,void** ppDevice)创建D3D设备,其中：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>pAdapter(IDXGIAdapter)为独立显卡之类的显示适配器指针，传入空指针时会默认指定主显示适配器</t>
+  </si>
+  <si>
+    <t>D3D_FEATURE_LELVE MinimumFeatureLevel是应用程序需要硬件支持的最低功能级别</t>
+  </si>
+  <si>
+    <t>riid是ID3D12Device的Com ID</t>
+  </si>
+  <si>
+    <t>ppDevice指针指向所创建的ID3D12Device</t>
+  </si>
+  <si>
+    <t>riid与ppDevice在实践中一般用辅助宏IID_PPV_ARGS来一并传入，IID_PPV_ARGS(&amp;mDevice)，其中mDevice为ComPtr&lt;ID3D12Device&gt; mDevice</t>
+  </si>
+  <si>
+    <t>创建围栏(ID3D12Fence)，并且获取相关资源描述符大小</t>
+  </si>
+  <si>
+    <t>借由ID3D12Device::CreateFence方法创建ID3D12Fence，即mDevice-&gt;CreateFence(args...)</t>
+  </si>
+  <si>
+    <t>借由ID3D12Device::GetDescriptorHandleIncrementSize方法获取相应资源描述符大小，3种都要获取:RTV（渲染对象视图）,DSV（深度/模板视图），CBV/SRV/UAV（常量缓冲区视图/着色器资源视图/无序访问视图）</t>
+  </si>
+  <si>
+    <t>检测各种支持，示例中检测了对4X MSAA的支持</t>
+  </si>
+  <si>
+    <t>创建命令队列和命令列表</t>
+  </si>
+  <si>
+    <t>命令队列(ID3D12CommandQueue)是实际要GPU执行的命令的队列,由ID3D12Device::CreateCommandQueue创建</t>
+  </si>
+  <si>
+    <t>命令列表（ID3D12GraphicsCommandList）是CPU调用，让GPU执行的命令的列表，由命令分配器（ID3D12CommandAllocator）实际保存并加载进命令队列中</t>
+  </si>
+  <si>
+    <t>ID3D12CommandAllocator由ID3D12Device::CreateCommandAllocator创建</t>
+  </si>
+  <si>
+    <t>ID3D12GraphicsCommandList由ID3D12Device::CreateCommandList创建，创建时要指定与之关联的命令分配器</t>
+  </si>
+  <si>
+    <t>多个命令列表可以关联同一个命令分配器，但同时只能有一个列表能往分配器里记录命令，其中一个在记录命令时，必须关闭其他与相同命令分配器关联的列表</t>
+  </si>
+  <si>
+    <t>以CreateDXGIFactory1创建IDXGIFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述并创建交换链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建描述符堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建渲染目标视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写DXGI_SWAP_CHAIN_DESC结构体实例，用以描述要创建的交换链，其属性中较重要的有:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DXGI_MODE_DESC BufferDesc：待创建后台缓冲区的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DXGI_SAMPLE_DESC SampleDesc：交换链多重采样设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DXGI_USAGE BufferUsage：缓冲区用法，在这里是要把缓冲区用作渲染目标，故应该填DXGI_USAGE_RENDER_TARGET_OUTPUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BufferCount：缓冲区数量，双重缓冲就是2个缓冲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutputWindow：渲染窗口的句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windowed：是否窗口化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DXGI_SWAP_EFFECT：指定为DXGI_SWAP_EFFECT_FLIP_DISCARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flags：可选标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写完成后，用IDXGIFactory::CreateSwapChain方法创建交换链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDXGIFactory由CreateDXGIFactory1方法创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台缓冲区都是存储在交换链中的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要将缓冲区绑定到渲染流水线上，要先创建缓冲区的资源描述符，描述符堆就是保存资源描述符的“容器”，所以要先创建描述符堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以ID3D12Device::CreateDescriptorHeap方法创建描述符堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本例中，在交换链中有SwapChainBufferCount个后台缓冲区，还有一个用于深度测试的深度/模板缓冲区，所以需要两个描述符堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过ID3D12DescriptorHeap::GetCPUDescriptorHandleForHeapStart方法，获得描述符堆中第一个描述符的句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过CD3D12_CPU_DESCRIPTOR_HANDLE结构体以及索引偏移，获取对应缓冲区的描述符（视图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有了描述符堆，还需创建对应的描述符，使用ID3D12Device::CreateRenderTargetView来创建对应的描述符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建深度/模板缓冲区及其描述符（视图）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1632,7 +1783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1659,6 +1810,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2053,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2481,6 +2635,261 @@
         <v>72</v>
       </c>
     </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="6">
+        <v>30</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="6">
+        <v>31</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第二章 计算机图形硬件" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1635,11 +1635,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有了描述符堆，还需创建对应的描述符，使用ID3D12Device::CreateRenderTargetView来创建对应的描述符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建深度/模板缓冲区及其描述符（视图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDXGISwapChain::GetBuffer获取相应的缓冲区资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用ID3D12Device::CreateRenderTargetView来创建对应的描述符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度/模板缓冲区其实就是一个2D纹理，是一种GPU资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过填写D3D12_RESOURCE_DESC结构体来描述相应的深度/模板缓冲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID3D12Device::CreateCommittedResource创建深度/模板缓冲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID3D12Device::CreateDepthStencilView创建深度/模板缓冲区描述符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置视口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID3D12GraphicsCommandList::RSSetViewports设置视口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能为同一个渲染目标指定多个视口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置裁剪矩形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁剪矩形之外的像素都将被剔除，不会被光栅化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID3D12GraphicsCommandList::RSSetScissorRect设置裁剪矩形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令列表重置，视口相应重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能为同一个渲染目标设置多个裁剪矩形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令列表重置，裁剪矩形相应重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有了描述符堆，还需创建对应的描述符，创建描述符，要先获取对应的缓冲区，然后为缓冲区创建对应的描述符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows.h中的QueryPerformanceCounter函数获取当前时刻值，QueryPerformanceFrequency获得计时器频率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2207,10 +2271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2651,6 +2715,19 @@
         <v>73</v>
       </c>
     </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="6">
+        <v>32</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="6">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2660,10 +2737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2879,15 +2956,96 @@
     </row>
     <row r="44" spans="1:2">
       <c r="B44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>114</v>
+    <row r="49" spans="1:2">
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -2274,7 +2274,7 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第二章 计算机图形硬件" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1704,6 +1704,14 @@
   </si>
   <si>
     <t>windows.h中的QueryPerformanceCounter函数获取当前时刻值，QueryPerformanceFrequency获得计时器频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12_VIEWPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12_RECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2273,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2737,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3007,44 +3015,54 @@
     </row>
     <row r="55" spans="1:2">
       <c r="B55" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="B56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="B57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
+    <row r="60" spans="1:2">
+      <c r="A60">
         <v>10</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="B60" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="B61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="B62" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
         <v>128</v>
       </c>
     </row>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1712,6 +1712,10 @@
   </si>
   <si>
     <t>D3D12_RECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写D3D12_DESCRIPTOR_HEAP_DESC结构体来描述 描述符堆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2281,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2745,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2936,133 +2940,138 @@
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
+    <row r="44" spans="1:2">
+      <c r="A44">
         <v>7</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="B44" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="B46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
+    <row r="49" spans="1:2">
+      <c r="A49">
         <v>8</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="B49" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
+    <row r="55" spans="1:2">
+      <c r="A55">
         <v>9</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="B55" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="B56" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="B57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="B58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
+    <row r="61" spans="1:2">
+      <c r="A61">
         <v>10</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="B61" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="B62" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="B63" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="B64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
         <v>128</v>
       </c>
     </row>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -2751,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第二章 计算机图形硬件" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="161">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1716,6 +1716,113 @@
   </si>
   <si>
     <t>填写D3D12_DESCRIPTOR_HEAP_DESC结构体来描述 描述符堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染管线相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营造出立体感的一些要点：线性透视，近大远小，前后遮挡，光照反射，阴影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染管线概述：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入装配器阶段(IA,Input Assembler)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点着色器阶段(VS,Vertex Shader)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外壳着色器阶段(HS,Hull Shader)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲面细分阶段(Tessellator)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域着色器阶段(DS,Domain Shader)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几何着色器阶段(GS,Geometry Shader)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光栅化阶段(RS,Rasterizer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像素着色器阶段(PS,Pixel Shader)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出合并阶段(OM,Ouput Merger)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流输出阶段(SO,Stream Output)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入装配器阶段：从显存中读取顶点与索引这样的几何数据，再将之装配为几何图元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在D3D中，通过顶点缓冲区(Vertex Buffer)，将顶点与渲染流水线绑定；通过图元拓扑(Primitive Topology)，告知D3D如何利用顶点表示几何图元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID3D12GraphicsCommandList::IASetPrimitiveTopology(D3D_PRIMITIVE_TOPOLOGY PrimitiveTopology)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种类型的图元拓扑：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D_PRIMITIVE_TOPOLOGY_POINTLIST:点列表，所以顶点被绘制成一个个单独的点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D_PRIMITIVE_TOPOLOGY_LINESTRIP：线条带，顶点在绘制过程中被绘制成一系列的连续线段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D_PRIMITIVE_TOPOLOGY_LINELIST:每对顶点被绘制成一条条单独的线段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D_PRIMITIVE_TOPOLOGY_TRIANGLESTRIP：顶点被绘制成连续的三角形带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D_PRIMITIVE_TOPOLOGY_TRIANGLELIST：三角形列表，每3个顶点绘制成一个三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D_PRIMITIVE_TOPOLOGY_TRIANGLELIST_ADJ：具有邻接数据的三角形列表，一般用于几何着色器阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1859,7 +1966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1890,6 +1997,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2283,10 +2393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2671,7 +2781,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:7">
       <c r="A49" s="6">
         <v>25</v>
       </c>
@@ -2679,7 +2789,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:7">
       <c r="A50" s="6">
         <v>26</v>
       </c>
@@ -2687,7 +2797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:7">
       <c r="A51" s="6">
         <v>27</v>
       </c>
@@ -2695,7 +2805,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:7">
       <c r="A52" s="6">
         <v>28</v>
       </c>
@@ -2703,7 +2813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:7">
       <c r="A53" s="6">
         <v>29</v>
       </c>
@@ -2711,7 +2821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:7">
       <c r="A54" s="6">
         <v>30</v>
       </c>
@@ -2719,7 +2829,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:7">
       <c r="A55" s="6">
         <v>31</v>
       </c>
@@ -2727,7 +2837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:7">
       <c r="A56" s="6">
         <v>32</v>
       </c>
@@ -2735,9 +2845,246 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="6">
-        <v>33</v>
+    <row r="58" spans="1:7">
+      <c r="A58" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="6">
+        <v>1</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="6">
+        <v>2</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="C61" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="C62" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="C63" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="C64" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="C65" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="C66" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="C67" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="C68" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="C69" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="C70" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="C71" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="C72" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="C73" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="C74" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="C75" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="C76" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="C77" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="6">
+        <v>3</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="B85" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2751,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="164">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1823,6 +1823,18 @@
   </si>
   <si>
     <t>D3D_PRIMITIVE_TOPOLOGY_TRIANGLELIST_ADJ：具有邻接数据的三角形列表，一般用于几何着色器阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点着色器：对顶点进行初步处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建观察矩阵：XMMatrixLookAtLH(pos,target,up)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建透视投影矩阵：XMMatrixPerspectiveFovLH(float Angle Y,float Aspect,float NearZ,float FarZ)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2393,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3085,6 +3097,30 @@
     <row r="88" spans="1:2">
       <c r="B88" s="7" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="6">
+        <v>4</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="173">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1834,7 +1834,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>构建透视投影矩阵：XMMatrixPerspectiveFovLH(float Angle Y,float Aspect,float NearZ,float FarZ)</t>
+    <t>透视投影矩阵：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 / [r · tan(α/2)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 / tan(α/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f / (f - n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-n · f / ( f - n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建透视投影矩阵：XMMatrixPerspectiveFovLH(float Angle Y,float Aspect,float NearZ,float FarZ),Y为上面矩阵中的α(弧度制),Aspect为矩阵中的r,NearZ为矩阵中的n,FarZ为矩阵中的f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某一点(x,y,z,w)经过此投影矩阵变换后，需要再进一步除以经过变换后的w（称为齐次除法或透视除法），转换成规格化设备坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光栅化阶段：主要任务是为投影至屏幕上的3D三角形计算出对应的像素颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视口变换，将规格化设备坐标进行变换，变换后规格化设备坐标中的x，y都将以像素为单位表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断三角形的法线：左手螺旋定则，4指按照绕序握拳，大拇指所指方向即为法线n的方向，n射出的方向为正面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1966,7 +2002,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1974,11 +2010,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2011,6 +2127,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2405,16 +2548,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="9" style="7"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3053,7 +3200,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:7">
       <c r="A81" s="6">
         <v>3.2</v>
       </c>
@@ -3061,7 +3208,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:7">
       <c r="A82" s="6">
         <v>3.3</v>
       </c>
@@ -3069,37 +3216,37 @@
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:7">
       <c r="B83" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:7">
       <c r="B84" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:7">
       <c r="B85" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:7">
       <c r="B86" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:7">
       <c r="B87" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:7">
       <c r="B88" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:7">
       <c r="A89" s="6">
         <v>4</v>
       </c>
@@ -3107,7 +3254,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:7">
       <c r="A90" s="6">
         <v>4.0999999999999996</v>
       </c>
@@ -3115,12 +3262,106 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:7">
       <c r="A91" s="6">
         <v>4.2</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>163</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E91" s="13">
+        <v>0</v>
+      </c>
+      <c r="F91" s="13">
+        <v>0</v>
+      </c>
+      <c r="G91" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="D92" s="15">
+        <v>0</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F92" s="16">
+        <v>0</v>
+      </c>
+      <c r="G92" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="D93" s="15">
+        <v>0</v>
+      </c>
+      <c r="E93" s="16">
+        <v>0</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G93" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="D94" s="18">
+        <v>0</v>
+      </c>
+      <c r="E94" s="19">
+        <v>0</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G94" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="6">
+        <v>5</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3135,7 +3376,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="196">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1723,10 +1723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>渲染管线相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>营造出立体感的一些要点：线性透视，近大远小，前后遮挡，光照反射，阴影</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1871,6 +1867,102 @@
   </si>
   <si>
     <t>判断三角形的法线：左手螺旋定则，4指按照绕序握拳，大拇指所指方向即为法线n的方向，n射出的方向为正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染管线基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义顶点格式，需要创建对应的结构体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建结构体之后，还需要向Direct3D提供该顶点结构体的输入布局描述D3D12_INPUT_LAYOUT_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12_INPUT_LAYOUT_DESC中有两个成员：首先是一个指向const D3D12_INPUT_ELEMENT_DESC数组的首元素的指针，以及一个表示元素数量的整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12_INPUT_ELEMENT_DESC有以下成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef struct D3D12_INPUT_ELEMENT_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> LPCSTR SemanticName;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> UINT SemanticIndex;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DXGI_FORMAT Format;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> UINT InputSlot;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> UINT AlignedByteOffset;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> D3D12_INPUT_CLASSIFICATION InputSlotClass;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> UINT InstanceDataStepRate;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>} D3D12_INPUT_ELEMENT_DESC;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//与元素相关联的语义字符串，表示了元素的预期用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制几何体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//附加到语义上的索引，可以在不引入新语义名的情况下区分两种语义名一致的元素，在着色器代码中，不指明索引，将默认索引为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//顶点元素格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//指定传递元素所用的输入槽索引，Direct3D支持0到15共16个输入槽，通过他们向输入装配阶段输入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//从C++顶点结构体的首地址到其中某点元素的起始地址的字节偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//不使用“实例化”技术时，此参数指定为D3D12_INPUT_CLASSIFICATION_PER_VERTEX_DATA，否则指定为D3D12_INPUT_CLASSIFICATION_PER_INSTANCE_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//不使用“实例化”技术时，此参数指定为0，否则指定为1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2548,10 +2640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3009,7 +3101,7 @@
         <v>134</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3017,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3025,12 +3117,12 @@
         <v>2</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="C61" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -3039,7 +3131,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="C62" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -3048,7 +3140,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="C63" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -3057,7 +3149,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="C64" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -3066,7 +3158,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="C65" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -3075,7 +3167,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="C66" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -3084,7 +3176,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="C67" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -3093,7 +3185,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="C68" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -3102,7 +3194,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="C69" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -3111,7 +3203,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="C70" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -3120,7 +3212,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="C71" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -3129,19 +3221,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="C72" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D72" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7">
       <c r="C73" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
@@ -3150,7 +3242,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="C74" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
@@ -3159,7 +3251,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="C75" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -3168,7 +3260,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="C76" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
@@ -3177,7 +3269,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="C77" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
@@ -3189,7 +3281,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3197,7 +3289,7 @@
         <v>3.1</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3205,7 +3297,7 @@
         <v>3.2</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3213,37 +3305,37 @@
         <v>3.3</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="B83" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="B85" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="B87" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3251,7 +3343,7 @@
         <v>4</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3259,7 +3351,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3267,10 +3359,10 @@
         <v>4.2</v>
       </c>
       <c r="B91" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="E91" s="13">
         <v>0</v>
@@ -3287,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F92" s="16">
         <v>0</v>
@@ -3304,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G93" s="17">
         <v>1</v>
@@ -3318,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G94" s="20">
         <v>0</v>
@@ -3329,7 +3421,7 @@
         <v>4.3</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3337,31 +3429,142 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="6">
         <v>5</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="6">
         <v>5.0999999999999996</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="6">
         <v>5.2</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="6">
+        <v>1</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="6">
+        <v>2</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="6">
+        <v>3</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="6">
+        <v>4</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="B106" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="B107" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="B108" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F108" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="B109" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F109" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="B110" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F110" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="B111" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F111" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="B112" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F112" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F113" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="211">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1963,6 +1963,66 @@
   </si>
   <si>
     <t>//不使用“实例化”技术时，此参数指定为0，否则指定为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点缓冲区：储存顶点的GPU资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12中，所有资源均用ID3D12Resource接口来表示，由ID3D12Device::CreateCommittedResource方法创建，资源由D3D12_RESOURCE_DESC结构体描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12提供了CD3D12_RESOURCE_DESC包装类，用来简化缓冲区描述过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD3D12_RESOURCE_DESC::Buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD3D12_RESOURCE_DESC::Tex1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD3D12_RESOURCE_DESC::Tex2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD3D12_RESOURCE_DESC::Tex3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可分别简化创建对应类型的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于静态几何体(每一帧都不会发生改变的几何体),一般将其顶点缓冲区置于默认堆(D3D12_HEAP_TYPE_DEFAULT，仅允许GPU读写)中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了初始化此顶点缓冲区，我们需要创建一个上传堆(D3D12_HEAP_TYPE_UPLOAD，可允许CPU写入数据)，然后利用UpdateSubresrouce方法将内存中的的数据复制到上传堆中，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再利用ID3D12CommandList::CopySubresourceRegion将上传堆中数据复制到默认堆中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如之前所述，所有GPU资源要通过描述符(视图)绑定到渲染流水线上，顶点缓冲区也是如此，不过顶点缓冲区不用存储在描述符堆中，以D3D12_VERTEX_BUFFER_VIEW结构体来表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点缓冲区以及视图创建好后，将其与渲染流水线的一个输入槽绑定，然后就能向渲染流水线的输入装配(IA)阶段传输顶点数据了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID3D12GraphicsCommandList::IASetVertexBuffers完成【12】所述步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成上述准备后，就可以调用ID3D12GraphicsCommandList::DrawInstanced方法绘制顶点，顶点被绘制成的哪种具体图元则由前面所说的ID3D12GraphicsCommandList::IASetPrimitiveTopology来指定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2640,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3546,7 +3606,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="1:6">
       <c r="B113" s="7" t="s">
         <v>185</v>
       </c>
@@ -3554,7 +3614,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="1:6">
       <c r="B114" s="7" t="s">
         <v>186</v>
       </c>
@@ -3562,9 +3622,114 @@
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="1:6">
       <c r="B115" s="7" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="6">
+        <v>5</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="6">
+        <v>6</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="6">
+        <v>7</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="6">
+        <v>8</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="B120" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="B121" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="B122" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="B123" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="6">
+        <v>9</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="6">
+        <v>10</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="B126" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="6">
+        <v>11</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="6">
+        <v>12</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="6">
+        <v>13</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="6">
+        <v>14</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3578,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="215">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2023,6 +2023,22 @@
   </si>
   <si>
     <t>完成上述准备后，就可以调用ID3D12GraphicsCommandList::DrawInstanced方法绘制顶点，顶点被绘制成的哪种具体图元则由前面所说的ID3D12GraphicsCommandList::IASetPrimitiveTopology来指定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引缓冲区：与顶点缓冲区一样，也是GPU资源，创建方法一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将索引缓冲区绑定到渲染管线上同样需要创建相应的索引缓冲区视图，与顶点缓冲区视图一样，不需要存储在描述符堆中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引缓冲区描述符以结构体D3D12_INDEX_BUFFER_VIEW来描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID3D12CommandList::IASetIndexBuffer将索引缓冲区绑定到输入装配阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2700,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3730,6 +3746,38 @@
       </c>
       <c r="B130" s="7" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="6">
+        <v>15</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="6">
+        <v>16</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="6">
+        <v>17</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="6">
+        <v>18</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="222">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2039,6 +2039,34 @@
   </si>
   <si>
     <t>ID3D12CommandList::IASetIndexBuffer将索引缓冲区绑定到输入装配阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量缓冲区通常由CPU每帧更新一次，所以一般存储在上传堆中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量缓冲区大小必为硬件最小分配空间(256B)的整数倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用memcpy函数可将内存中的数据更新到常量缓冲区，为此，要获取指向欲更新资源(常量缓冲区)的指针，使用ID3D12Resource::Map方法实现这一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D3D12Resource::Map(子资源索引,D3D12_RANGE结构体指针,指向欲更新资源的指针的指针)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子资源索引指定了欲映射的子资源，对于缓冲区来说，本身就是唯一的子资源，索引是0；D3D12_RANGE结构体描述了内存的映射范围，为空指针则表示对整个资源进行映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数执行完后，第三个参数指针将指向欲更新资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新完毕后，释放内存资源之前，利用1D3D12Resource::Unmap取消映射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2716,10 +2744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3643,141 +3671,191 @@
         <v>187</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="6">
-        <v>5</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
     <row r="117" spans="1:6">
       <c r="A117" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="6">
+        <v>7</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="6">
         <v>8</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B120" s="7" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="B120" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="B121" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="B122" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="B123" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="B124" s="7" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="6">
-        <v>9</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="6">
+        <v>9</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="6">
         <v>10</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B126" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="B126" s="7" t="s">
+    <row r="127" spans="1:6">
+      <c r="B127" s="7" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="6">
-        <v>11</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="6">
+        <v>17</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="6">
         <v>18</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B135" s="7" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="6">
+        <v>19</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="6">
+        <v>20</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="6">
+        <v>21</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="6">
+        <v>22</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="B140" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="B141" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="6">
+        <v>23</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="234">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1978,22 +1978,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CD3D12_RESOURCE_DESC::Buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD3D12_RESOURCE_DESC::Tex1D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD3D12_RESOURCE_DESC::Tex2D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD3D12_RESOURCE_DESC::Tex3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可分别简化创建对应类型的资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2067,6 +2051,66 @@
   </si>
   <si>
     <t>更新完毕后，释放内存资源之前，利用1D3D12Resource::Unmap取消映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制调用开始执行前，要把各种GPU资源绑定到渲染管线上。实际上，不同的资源是绑定到了不同的寄存器槽上，供Shader调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register(*#)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星号(*)表示寄存器传递的资源类型，有t(着色器资源视图)、s(采样器)、u(无序访问视图)、b(常量缓冲区视图)，#则是寄存器槽编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根签名定义了在执行绘制命令之前，那些应用程序将绑定到渲染流水线上的资源，它们会被映射到着色器对应的输入寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根签名由ID3D12RootSignature接口表示，以一组描述绘制调用过程中着色器所需资源的根参数定义而成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根参数(root parameter)可以是根常量(root constant)、根描述符(root descriptor)、描述符表(descriptor table)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID3D12Device::CreateRootSignature方法创建根签名，此签名只接受根签名描述布局的序列化数据格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12SerializeRootSignature方法将根签名描述布局(CD3DX12_ROOT_SIGNATURE_DESC)转化为序列化数据格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD3DX12_RESOURCE_DESC::Buffer</t>
+  </si>
+  <si>
+    <t>CD3DX12_RESOURCE_DESC::Tex1D</t>
+  </si>
+  <si>
+    <t>CD3DX12_RESOURCE_DESC::Tex2D</t>
+  </si>
+  <si>
+    <t>CD3DX12_RESOURCE_DESC::Tex3D</t>
+  </si>
+  <si>
+    <t>ID3D12GraphicsCommandList::SetGraphicsRootDescriptorTable方法将描述符表于渲染流水线相绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID3D12GraphicsCommandList::SetGraphicsRootSignature方法将根签名设置到命令列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID3D12GraphicsCommandList::SetDescriptorHeaps方法将描述符堆设置到命令列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改根签名，将失去所有资源绑定关系，需要重新将对应资源绑定到渲染流水线上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2744,10 +2788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3700,27 +3744,27 @@
         <v>8</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="B121" s="7" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="B122" s="7" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="B123" s="7" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="B124" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3728,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3736,12 +3780,12 @@
         <v>10</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="B127" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3749,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3757,7 +3801,7 @@
         <v>12</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3765,7 +3809,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3773,7 +3817,7 @@
         <v>14</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3781,7 +3825,7 @@
         <v>15</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3789,7 +3833,7 @@
         <v>16</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3797,7 +3841,7 @@
         <v>17</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3805,7 +3849,7 @@
         <v>18</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3813,7 +3857,7 @@
         <v>19</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3821,7 +3865,7 @@
         <v>20</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3829,7 +3873,7 @@
         <v>21</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3837,17 +3881,17 @@
         <v>22</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="B140" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="B141" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3855,7 +3899,94 @@
         <v>23</v>
       </c>
       <c r="B142" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="6">
+        <v>24</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="6">
+        <v>25</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="B145" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="6">
+        <v>26</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="6">
+        <v>27</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="6">
+        <v>28</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="6">
+        <v>29</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="6">
+        <v>30</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="6">
+        <v>31</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="B152" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="B153" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="6">
+        <v>32</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3870,7 +4001,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="262">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2111,6 +2111,118 @@
   </si>
   <si>
     <t>更改根签名，将失去所有资源绑定关系，需要重新将对应资源绑定到渲染流水线上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光栅器状态，只接受配置，由D3D12_RASTERIZER_DESC表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef struct D3D12_RASTERIZER_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> D3D12_FILL_MODE FillMode;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> D3D12_CULL_MODE CullMode;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOOL FrontCounterClockwise;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> INT DepthBias;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FLOAT DepthBiasClamp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FLOAT SlopeScaledDepthBias;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOOL DepthClipEnable;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOOL MultisampleEnable;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOOL AntialiasedLineEnable;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> UINT ForcedSampleCount;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> D3D12_CONSERVATIVE_RASTERIZATION_MODE ConservativeRaster;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>} D3D12_RASTERIZER_DESC;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//填充模式，默认值为：D3D12_FILL_MODE_SOLID(实体模式)，可切换为D3D12_FILL_MODE_WIREFRAME线框模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//剔除模式，默认值为：D3D12_CULL_MODE_BACK(背面剔除)，可切换为D3D12_CULL_MODE_FRONT正面剔除，或者D3D12_CULL_MODE_NONE禁用剔除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//顶点绕序，默认值为：false(从观察视角看去，顺时针为正面)，改为true的话表示逆时针为正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//默认值为：0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//默认值为：0.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//默认值为：0.0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//默认值为：true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//默认值为：false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//默认值为：false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//默认值为：D3D12_CONSERVATIVE_RASTERIZATION_MODE_OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线状态对象(Pipeline State Object,PSO)：控制大多数图形流水线状态,表示为ID3D12PipelineState接口，以结构体D3D12_GRAPHICS_PIPELINE_STATE_DESC描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过ID3D12Device::CreateGraphicsPipelineState方法创建PSO，一般而言应该在初始化时就创建PSO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID3D12GraphicsCommandList::SetPipelineState方法设置所用的PSO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2788,10 +2900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="I151" sqref="I151"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3918,12 +4030,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:7">
       <c r="B145" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:7">
       <c r="A146" s="6">
         <v>26</v>
       </c>
@@ -3931,7 +4043,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:7">
       <c r="A147" s="6">
         <v>27</v>
       </c>
@@ -3939,7 +4051,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:7">
       <c r="A148" s="6">
         <v>28</v>
       </c>
@@ -3947,7 +4059,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:7">
       <c r="A149" s="6">
         <v>29</v>
       </c>
@@ -3955,7 +4067,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:7">
       <c r="A150" s="6">
         <v>30</v>
       </c>
@@ -3963,7 +4075,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:7">
       <c r="A151" s="6">
         <v>31</v>
       </c>
@@ -3971,22 +4083,157 @@
         <v>230</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:7">
       <c r="B152" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:7">
       <c r="B153" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:7">
       <c r="A154" s="6">
         <v>32</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="6">
+        <v>33</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="B156" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="B157" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="B158" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G158" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="B159" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G159" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="B160" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G160" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="B161" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G161" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="B162" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G162" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="B163" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G163" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="B164" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G164" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="B165" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G165" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="B166" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G166" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="B167" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G167" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="B168" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G168" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="B169" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="6">
+        <v>34</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="6">
+        <v>35</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="6">
+        <v>36</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="265">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2223,6 +2223,18 @@
   </si>
   <si>
     <t>ID3D12GraphicsCommandList::SetPipelineState方法设置所用的PSO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3DCompileFromFile在运行时编译着色器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D3DBlob类型描述的就是一块内存块，有GetBufferPointer以及GetBufferSize两个方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectX自带FXC命令行编译工具，可用于编译HLSL文件，对着色器进行离线编译</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2900,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="J179" sqref="J179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4030,12 +4042,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:2">
       <c r="B145" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:2">
       <c r="A146" s="6">
         <v>26</v>
       </c>
@@ -4043,7 +4055,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:2">
       <c r="A147" s="6">
         <v>27</v>
       </c>
@@ -4051,7 +4063,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:2">
       <c r="A148" s="6">
         <v>28</v>
       </c>
@@ -4059,7 +4071,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:2">
       <c r="A149" s="6">
         <v>29</v>
       </c>
@@ -4067,7 +4079,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:2">
       <c r="A150" s="6">
         <v>30</v>
       </c>
@@ -4075,7 +4087,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:2">
       <c r="A151" s="6">
         <v>31</v>
       </c>
@@ -4083,17 +4095,17 @@
         <v>230</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:2">
       <c r="B152" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:2">
       <c r="B153" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:2">
       <c r="A154" s="6">
         <v>32</v>
       </c>
@@ -4101,138 +4113,162 @@
         <v>233</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:2">
       <c r="A155" s="6">
         <v>33</v>
       </c>
       <c r="B155" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="6">
+        <v>34</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="6">
+        <v>35</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="6">
+        <v>36</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="B156" s="7" t="s">
+    <row r="159" spans="1:2">
+      <c r="B159" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="B157" s="7" t="s">
+    <row r="160" spans="1:2">
+      <c r="B160" s="7" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="B158" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G158" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="B159" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G159" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="B160" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G160" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="B161" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G161" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="B162" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G162" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="B163" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G163" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="B164" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G164" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="B165" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G165" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="B166" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G166" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="B167" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G167" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="B168" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G168" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="B169" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G169" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="B170" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="B171" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G171" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="B172" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="6">
-        <v>34</v>
-      </c>
-      <c r="B171" s="7" t="s">
+    <row r="174" spans="1:7">
+      <c r="A174" s="6">
+        <v>37</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="6">
-        <v>35</v>
-      </c>
-      <c r="B172" s="7" t="s">
+    <row r="175" spans="1:7">
+      <c r="A175" s="6">
+        <v>38</v>
+      </c>
+      <c r="B175" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="6">
-        <v>36</v>
-      </c>
-      <c r="B173" s="7" t="s">
+    <row r="176" spans="1:7">
+      <c r="A176" s="6">
+        <v>39</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>261</v>
       </c>
     </row>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第二章 计算机图形硬件" sheetId="1" r:id="rId1"/>
@@ -2914,7 +2914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A172" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A172" workbookViewId="0">
       <selection activeCell="J179" sqref="J179"/>
     </sheetView>
   </sheetViews>
@@ -4283,8 +4283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第二章 计算机图形硬件" sheetId="1" r:id="rId1"/>
     <sheet name="DX3D12" sheetId="2" r:id="rId2"/>
     <sheet name="DX3D12初始化步骤" sheetId="3" r:id="rId3"/>
+    <sheet name="坑" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="266">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2235,6 +2236,10 @@
   </si>
   <si>
     <t>DirectX自带FXC命令行编译工具，可用于编译HLSL文件，对着色器进行离线编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在VS内新建HLSL文件，会自动以unicode格式存储，导致编译失败，要在外部建立好再导入工程中（煞笔巨硬）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2803,7 +2808,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2914,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="J179" sqref="J179"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4283,8 +4288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4612,4 +4617,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="265">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1419,10 +1419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IID_PPV_ARGS辅助宏定义为：#define IID_PPV_ARGS(ppType) __uuidof(**ppType), IID_PPV_ARGS_Helper(ppType),其中__uuidof(**ppType)将获取(**ppType)的COM接口ID，后接的IID_PPV_ARGS_Helper宏可获取一个void**待创建COM接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>(接上条)所以调用一些形如</t>
     </r>
@@ -2239,7 +2235,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在VS内新建HLSL文件，会自动以unicode格式存储，导致编译失败，要在外部建立好再导入工程中（煞笔巨硬）</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IID_PPV_ARGS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辅助宏定义为：#define IID_PPV_ARGS(ppType) __uuidof(**ppType), IID_PPV_ARGS_Helper(ppType),其中__uuidof(**ppType)将获取(**ppType)的COM接口ID，后接的IID_PPV_ARGS_Helper宏可获取一个void**待创建COM接口</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2919,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3337,8 +3354,8 @@
       <c r="A52" s="6">
         <v>28</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>71</v>
+      <c r="B52" s="8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3346,7 +3363,7 @@
         <v>29</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3354,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3362,7 +3379,7 @@
         <v>31</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3370,15 +3387,15 @@
         <v>32</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3386,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3394,12 +3411,12 @@
         <v>2</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="C61" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -3408,7 +3425,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="C62" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -3417,7 +3434,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="C63" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -3426,7 +3443,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="C64" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -3435,7 +3452,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="C65" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -3444,7 +3461,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="C66" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -3453,7 +3470,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="C67" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -3462,7 +3479,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="C68" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -3471,7 +3488,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="C69" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -3480,7 +3497,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="C70" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -3489,7 +3506,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="C71" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -3498,19 +3515,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="C72" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D72" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7">
       <c r="C73" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
@@ -3519,7 +3536,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="C74" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
@@ -3528,7 +3545,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="C75" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -3537,7 +3554,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="C76" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
@@ -3546,7 +3563,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="C77" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
@@ -3558,7 +3575,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3566,7 +3583,7 @@
         <v>3.1</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3574,7 +3591,7 @@
         <v>3.2</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3582,37 +3599,37 @@
         <v>3.3</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="B83" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="B85" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="B87" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3620,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3628,7 +3645,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3636,10 +3653,10 @@
         <v>4.2</v>
       </c>
       <c r="B91" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="E91" s="13">
         <v>0</v>
@@ -3656,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F92" s="16">
         <v>0</v>
@@ -3673,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G93" s="17">
         <v>1</v>
@@ -3687,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G94" s="20">
         <v>0</v>
@@ -3698,7 +3715,7 @@
         <v>4.3</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3706,7 +3723,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3714,7 +3731,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3722,7 +3739,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3730,15 +3747,15 @@
         <v>5.2</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3746,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3754,7 +3771,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3762,7 +3779,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3770,78 +3787,78 @@
         <v>4</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="B106" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="B107" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="B108" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="B109" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="B110" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="B111" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="B112" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="B113" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="B114" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="B115" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3849,7 +3866,7 @@
         <v>5</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3857,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3865,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3873,27 +3890,27 @@
         <v>8</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="B121" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="B122" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="B123" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="B124" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3901,7 +3918,7 @@
         <v>9</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3909,12 +3926,12 @@
         <v>10</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="B127" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3922,7 +3939,7 @@
         <v>11</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3930,7 +3947,7 @@
         <v>12</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3938,7 +3955,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3946,7 +3963,7 @@
         <v>14</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3954,7 +3971,7 @@
         <v>15</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3962,7 +3979,7 @@
         <v>16</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3970,7 +3987,7 @@
         <v>17</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3978,7 +3995,7 @@
         <v>18</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3986,7 +4003,7 @@
         <v>19</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3994,7 +4011,7 @@
         <v>20</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4002,7 +4019,7 @@
         <v>21</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4010,17 +4027,17 @@
         <v>22</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="B140" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="B141" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4028,7 +4045,7 @@
         <v>23</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4036,7 +4053,7 @@
         <v>24</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4044,12 +4061,12 @@
         <v>25</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="B145" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4057,7 +4074,7 @@
         <v>26</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4065,7 +4082,7 @@
         <v>27</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4073,7 +4090,7 @@
         <v>28</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4081,7 +4098,7 @@
         <v>29</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4089,7 +4106,7 @@
         <v>30</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4097,17 +4114,17 @@
         <v>31</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="B152" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="B153" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4115,7 +4132,7 @@
         <v>32</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4123,7 +4140,7 @@
         <v>33</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4131,7 +4148,7 @@
         <v>34</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4139,7 +4156,7 @@
         <v>35</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4147,110 +4164,110 @@
         <v>36</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="B159" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="B160" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="B161" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G161" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="B162" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G162" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="B163" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G163" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="B164" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G164" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="B165" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G165" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="B166" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G166" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="B167" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G167" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="B168" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G168" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="B169" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G169" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="B170" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G170" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="B171" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G171" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="B172" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4258,7 +4275,7 @@
         <v>37</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4266,7 +4283,7 @@
         <v>38</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4274,7 +4291,7 @@
         <v>39</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4288,8 +4305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4299,40 +4316,40 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4340,17 +4357,17 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4358,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4366,32 +4383,32 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4399,67 +4416,67 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="C26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="C27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="C28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="C29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="C30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="C31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="C32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4467,37 +4484,37 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="B37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="B42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4505,22 +4522,22 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="B46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="B47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4528,27 +4545,27 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4556,27 +4573,27 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="B56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="B57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="B58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="B59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4584,32 +4601,32 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="B62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="B63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="B64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4621,23 +4638,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -10,7 +10,6 @@
     <sheet name="第二章 计算机图形硬件" sheetId="1" r:id="rId1"/>
     <sheet name="DX3D12" sheetId="2" r:id="rId2"/>
     <sheet name="DX3D12初始化步骤" sheetId="3" r:id="rId3"/>
-    <sheet name="坑" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2936,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4305,7 +4304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
@@ -4634,20 +4633,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第二章 计算机图形硬件" sheetId="1" r:id="rId1"/>
     <sheet name="DX3D12" sheetId="2" r:id="rId2"/>
     <sheet name="DX3D12初始化步骤" sheetId="3" r:id="rId3"/>
+    <sheet name="渲染过程理解" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2935,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4305,7 +4306,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4633,4 +4634,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="第二章 计算机图形硬件" sheetId="1" r:id="rId1"/>
     <sheet name="DX3D12" sheetId="2" r:id="rId2"/>
     <sheet name="DX3D12初始化步骤" sheetId="3" r:id="rId3"/>
     <sheet name="渲染过程理解" sheetId="5" r:id="rId4"/>
+    <sheet name="Games101课程" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="305">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2257,6 +2258,362 @@
       </rPr>
       <t>辅助宏定义为：#define IID_PPV_ARGS(ppType) __uuidof(**ppType), IID_PPV_ARGS_Helper(ppType),其中__uuidof(**ppType)将获取(**ppType)的COM接口ID，后接的IID_PPV_ARGS_Helper宏可获取一个void**待创建COM接口</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形学四大内容：光栅化，曲线曲面，光线追踪，模拟与动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础：线性代数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量点积判断前后，向量叉积判断左右以及某个点是否在三角形内部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗锯齿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高通低通滤波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像信息经过傅里叶变换由时域到频域之后，高频信号为图像边界以及细节（跟周围像素有较大差别的像素）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低频信号为内部连续色块（与周围像素差别不太大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高通滤波将过滤掉低频信号，让图像保留细节部分，滤波范围越广，滤除内容越多，最后可能只保留图像边界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低通滤波过滤掉高频信号，去除掉细节部分，使图像变得模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗锯齿的一种原理就是先将图像进行模糊，然后再进行采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采样本质是用一组冲激信号与原信号在时域相乘（等于两者分别通过傅里叶变换之后，在频域上进行卷积）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲激信号采样间隔越短，则在频域的频率越高，频域间隔越大，越不容易出现走样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSAA将每个像素内部分为不同的分像素，然后进行卷积，之后再采样，原理其实就是先模糊再采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际中应用MSAA是不是简单的把每个像素都分为2X2或者3X3或者4X4的阵列，而是会划分为特定的形状，不同像素之间可能还共用分像素，以此来大大减少开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXAA原理是直接进行采样，然后通过某种方法识别出图像边界，将边界替换成模糊之后的边界图样，达到反走样的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAA原理有点像是在时间上进行的MSAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着色模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光与材质的相互作用，使材质表现出相应的颜色与亮度，分为三个部分：漫反射、高光、环境光（Blinn-Phong反射模型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫反射：光照在某一点，能量与特定波长的光被材质吸收一部分，其余部分向四面八方反射，此项体现出材质的基础颜色（被反射出去的光）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入射点到观察点的观察方向对此项无影响，反射光强度与入射点到光源的距离的平方成反比，也与入射点法线与入射方向的夹角有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(I/r²)*max(0,n·l)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为漫反射系数，在图形学中一般直接用RGB来表示材质的基础颜色</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I为光源光强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r为光源到入射点距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n为入射点法线，l为入射方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高光：光滑的材质具有一定的镜面反射效果，与漫反射作对比，其光强与反射方向与观察方向的夹角有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(I/r²)*max(0,n·h)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,其中h = (n + l)/||n+l||</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数p用来使n·h的值更快收敛，以使得观察方向与反射方向角度很小时才能看到高光，实际中p一般取100到200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境光：Blinn-Phong模型中假定环境光为常量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着色频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐面(flat shading)、逐顶点(Gouraud shading)、逐像素(Phong shading)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点法线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将此顶点关联的所有面的法线求加权平均，即为顶点法线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像素法线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点法线之间进行插值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形学管线（实时渲染）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2264,7 +2621,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2377,6 +2734,24 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2936,8 +3311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView showGridLines="0" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4640,7 +5015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4650,4 +5025,220 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.25">
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18">
+      <c r="C34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="C35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.25">
+      <c r="C37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Games101课程" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="312">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2614,6 +2615,34 @@
   </si>
   <si>
     <t>图形学管线（实时渲染）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹理映射(UV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点投影到屏幕空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组装成三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光栅化(判断某个像素是否在三角形内,用像素中心点来判断,中间涉及到各种反走样/抗锯齿技术)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点(可编程,顶点着色器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对像素进行着色(可编程,像素着色器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出显示图像</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5029,10 +5058,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5237,8 +5266,44 @@
         <v>304</v>
       </c>
     </row>
+    <row r="49" spans="1:2">
+      <c r="B49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -14,7 +14,6 @@
     <sheet name="Games101课程" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="338">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2643,6 +2642,179 @@
   </si>
   <si>
     <t>输出显示图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算出某个像素点的UV值(通过三角形顶点插值得出),然后去纹理中找对应的点,取该点颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.取最接近的纹素,开销最小,但是效果不好,会造成明显的走样(锯齿)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.双线性插值(BiLinear),取周围4个纹素,进行两趟插值(三次插值,两次U方向一次V方向或者两次V方向一次U方向),得到最终的颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.BiCubic插值,取周围16个纹素进行插值,效果最好,但开销也最大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.可采取MipMap,对一张纹理图存储一定等级的MipMap,根据像素点覆盖的面积大小直接去找对应等级的MipMap中的映射,存储空间需求只增加三分之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点:比较快,开销小,额外空间需求只要三分之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点:不准确,只能找方形,会把距离较远的图像细节给模糊掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点:比MipMap更为准确,能显示细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点:需要额外3倍存储空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重心坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当MipMap层级不是整数时,则在两个接近的整数层级进行映射取值,然后将这两个值再进行插值,这种方法叫三线性插值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像素点覆盖的面积用一个正方形来近似,正方形的边长(L)取[与邻近的像素映射到纹理空间之后的位置取较大值]来确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L对2取对数即得MipMap层级(D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.各向异性(RipMaps),只在横向或纵向压缩图像,开销稍大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1问题(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点查询问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)会导致像素点映射不到对应的纹素(比如映射到了纹素之间),解决办法有三种</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2问题(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>范围查询问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)会导致一个像素点映射到纹理空间时覆盖多个纹素,若不做处理,简单的取像素中心点所对应的纹素,会出现严重的摩尔纹以及锯齿问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可能出现的问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:1纹理分辨率过小;2纹理分辨率远大于要显示的平面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹理高级应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题:顶部跟底部会扭曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将环境投影在一个全反射的球上,然后将球展开所得可以认为是环境贴图(Spherical Map)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决此问题:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.EWA filtering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将环境投影投在球的包围立方体上,再展开,得到六张图(Cube Map)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境贴图(Environment Map):来自不同方向的光照信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法线贴图(Bump Mapping)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2884,7 +3056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2946,6 +3118,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5058,10 +5231,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5266,39 +5439,169 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="B49" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="B50" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="B51" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="B52" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="B53" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="B54" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="C60" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="C61" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="C62" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="C64" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="C65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="C66" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="C67" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="D68" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="D69" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="C70" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="D71" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="D72" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="C73" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="C79" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="D80" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="C81" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="C82" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="B84" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="349">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2815,6 +2815,50 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移贴图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐式几何(Implicit):指明顶点之间的关系,能以函数来描述顶点的位置的几何都是隐式几何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点:很容易判定某个点与几何的位置关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显式几何(Explicit):直接或通过映射直接给定顶点的位置的几何叫显式几何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点:不能直观看出几何形状,很难得到所有顶点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点:容易找到所有顶点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点:不容易判定某个点与几何的位置关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSG(Constructive Solid Geometry):用一些基础几何体通过交并差等运算得到复杂几何体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF(Distance Function):距离函数,描述空间中任意一个点到某个几何体(面)上最短距离的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般用于两个几何体融合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5231,10 +5275,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5604,6 +5648,61 @@
         <v>337</v>
       </c>
     </row>
+    <row r="86" spans="1:3">
+      <c r="B86" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="C90" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="C91" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="C93" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="C94" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="373">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2859,6 +2859,144 @@
   </si>
   <si>
     <t>一般用于两个几何体融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐式几何的一些表示方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显式几何的一些表示方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点云(Point Cloud):空间中点的列表,直接列出各个点的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三维扫描得到的是点云,后续需要通过一些方法将其重建为三角面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多边形面(Polygon Mesh)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图形学中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:一个文本文件,描述了点、法线、纹理坐标以及它们互相之间的关系的文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝塞尔曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用一系列的控制点去定义的曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过插值找任意一个点,最后就能连成一条曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上是生成了一个关于参数t的多项式曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个点形成二次曲线(抛物线)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个点形成三次曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者说是用各个控制点去对伯恩斯坦多项式的各项做插值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝塞尔曲线在仿射变换下有几何不变性(线性变换下有几何不变性,仿射变换是线性变换)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐段定义贝塞尔曲线(一般每4个控制点定义一个,三阶贝塞尔曲线)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样条线(Splines)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条可控的曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B样条(basis splines)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝塞尔曲面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝塞尔曲线再次进行插值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几何处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格细分(Mesh Subdivision)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格减面(Mesh Simplification)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格正则化(Mesh Regularization)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5275,10 +5413,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5688,19 +5826,139 @@
         <v>345</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="B95" t="s">
-        <v>346</v>
-      </c>
-    </row>
     <row r="96" spans="1:3">
       <c r="B96" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
-      <c r="C97" t="s">
+    <row r="99" spans="2:4">
+      <c r="C99" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="C103" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="C105" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="C108" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="C109" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="C110" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="D111" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="D112" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="C113" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="C114" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="C117" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="D118" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="C119" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="C122" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="C125" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="C126" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="C127" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="406">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2997,6 +2997,248 @@
   </si>
   <si>
     <t>网格正则化(Mesh Regularization)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增的点位移处理:同边的两个顶点之和乘以八分之三,相对的两个旧顶点之和乘以八分之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧顶点处理:自身与相邻旧顶点的位置进行加权平均,(1-nu)*自身原来坐标 + u * 相邻旧顶点坐标之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n为该顶点的度(连接的边的数目),u与n有关,具体关系还没弄懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop Subdivision:只能对三角形网格组成的模型进行细分,增加三角形,然后移动顶点位置让模型更为光滑,新生成的顶点与旧顶点分别处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catmull-Clark Subdivision:对一般的模型进行细分(不仅仅是三角形网格组成的模型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-quad face:不是四边形的面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇异点:度不为4的顶点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细分步骤:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.取面中心点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.取该面的边的中心点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.将面中心点与边的中心点连起来,形成新的四边形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性质:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次细分之后,非四边形面全都消失了,初始有多少个非四边形面则增加多少个奇异点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续再进行细分,不会再增加奇异点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整顶点位置:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>老的点:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相邻的面的中心点(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1类新增点,权重为1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)与相连的边的中点(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2类新增点,权重为2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)以及相邻的老点(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>权重为1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)求加权平均</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>面内新点(1类新增点):</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原先面内的顶点位置求平均</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>边中心新点(2类新增点):</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该边原来两个顶点与该边相邻两个面的中心点位置求平均</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边坍缩(Edge Collapsing):将某条边的两个顶点合并(等于是这条边坍缩成了一个点,与该边原先两个点先关联的其他的面会相应减少)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次误差度量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次误差:新的点到关联的旧面的距离的平方和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坍缩哪些边:二次误差最小的边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每坍缩一条边后会引起其他边的二次误差变化,怎么办?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用堆(优先队列)数据结构,取出其中最小的值之后动态更新其他的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法,不一定是全局最优解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使三角形规则化,形状面积尽量接近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将摄像机放在光源,进行深度测试,找出光源处能看到的点,计算深度图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从实际观察点观察,将观察到的每一个像素点投影回光源的投影空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后与之前得到的深度图上对应的点进行深度对比,深度不一致的就是光源照射不到的点,即阴影,于是画出阴影贴图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴影图的分辨率影响阴影的渲染质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬阴影与软阴影:边缘锐利就是硬阴影,阴影与光照处界限分明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬阴影相当于现实中的本影,软阴影相当于半影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴影贴图(Shadow Map):光栅化渲染中渲染阴影的解决方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5413,10 +5655,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="J158" sqref="J158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5901,64 +6143,229 @@
         <v>360</v>
       </c>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="2:5">
       <c r="C113" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="114" spans="2:4">
+    <row r="114" spans="2:5">
       <c r="C114" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:5">
       <c r="B116" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:5">
       <c r="C117" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:5">
       <c r="D118" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="2:4">
+    <row r="119" spans="2:5">
       <c r="C119" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:5">
       <c r="B121" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:5">
       <c r="C122" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:5">
       <c r="B124" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:5">
       <c r="C125" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="2:4">
-      <c r="C126" t="s">
+    <row r="126" spans="2:5">
+      <c r="D126" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="E127" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="E128" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6">
+      <c r="E129" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6">
+      <c r="D130" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6">
+      <c r="E131" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6">
+      <c r="E132" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6">
+      <c r="E133" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6">
+      <c r="F134" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6">
+      <c r="F135" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6">
+      <c r="F136" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6">
+      <c r="E137" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6">
+      <c r="F138" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6">
+      <c r="F139" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6">
+      <c r="E140" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6">
+      <c r="F141" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6">
+      <c r="F142" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6">
+      <c r="F143" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="C145" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="127" spans="2:4">
-      <c r="C127" t="s">
+    <row r="146" spans="2:7">
+      <c r="D146" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="E147" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="F148" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="E149" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="E150" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="F151" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="G152" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="C154" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="D155" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="C158" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="C159" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="C160" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4">
+      <c r="C162" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4">
+      <c r="C164" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4">
+      <c r="D165" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="414">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3239,6 +3239,38 @@
   </si>
   <si>
     <t>阴影贴图(Shadow Map):光栅化渲染中渲染阴影的解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光线追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量非常高,渲染非常慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光追中三个假设:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光沿直线传播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光互相交叉的时候不会互相作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光从光源到眼睛(观察点)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光追利用了光路可逆原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形学中的光线追踪是从眼睛(观察点)发射光线到世界,经过一系列反射之后投射到光源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5655,10 +5687,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="J158" sqref="J158"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6353,19 +6385,59 @@
         <v>401</v>
       </c>
     </row>
-    <row r="162" spans="3:4">
+    <row r="162" spans="1:4">
       <c r="C162" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="1:4">
       <c r="C164" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="165" spans="3:4">
+    <row r="165" spans="1:4">
       <c r="D165" t="s">
         <v>404</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="B169" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="B170" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="C171" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="C172" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="C173" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="B174" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="B175" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="471">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3271,6 +3271,590 @@
   </si>
   <si>
     <t>图形学中的光线追踪是从眼睛(观察点)发射光线到世界,经过一系列反射之后投射到光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recursive(Whitted-Style) Ray Tracing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求光线与物体表面的交点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r(t) = o + td     0&lt;=t&lt;∞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o:origin   d: direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于任意隐式表面:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p: f(p) = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>则交点满足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f(o + td) = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解出t则得出交点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求光线与三角面的交点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.光线与平面求交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.判断点是否在三角面内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>迅速判断光线与三角面交点的M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>ller Trumbore算法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴素算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重心坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通常用到的包围盒是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AABB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Axis-Aligned Bounding Box,轴对齐包围盒)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即边与xyz中某条轴平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何判断光线与指定AABB有交点?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AABB是由3对面围成的,很容易得到光线与这6个面的交点(以带参数t的式子表示)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>对于每一对面,可求出一个进入时间t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,一个离开时间t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>光线必须同时进入3对面之间,才能认为是进入了包围盒,则对3个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取最大值得到t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,对3个t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取最小值得到t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,说明光线进入过包围盒,即光线与包围盒有交点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理t的负值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;0,说明包围盒在光线背后,没有交点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;=0,t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;0,说明光源在AABB中,必有交点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;=0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求eye-ray经过各种弹射之后与各个物体表面的交点,对此交点计算其着色,最后相加,得到该像素的最终结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速求光线与表面交点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包围盒(Bounding Volumes):光线与包围盒不想交,则不可能与包围盒内的表面相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用AABB加速光线与表面交点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.找出包围盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.对包围盒进行预处理,分成一个个的grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.当与光线相交的grid也与物体表面相交时,进行一次光线与表面相交的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际应用中,grid的划分不能太密(增大计算量)也不能太稀疏(加速效果很差)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般划分grid数为27*包围盒内物体数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当场景物体分布比较均匀的时候,这种grid划分法效果比较好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当物体分布不均匀的时候,这种划分法效果不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间划分(Spatial Partitions)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案:空间划分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要利用KD-Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在渲染前将空间场景用KD-Tree划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来划分空间的KD-Tree的节点需要有的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.划分轴(x?y?z?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.划分位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.包含的objects(只有叶节点才存储这一项,即当子节点为空才开始储存包含的objects)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光线射入时,从根节点开始,判断光线是否跟AABB相交,有相交的话,再判断跟子节点AABB相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子节点为空,则为叶子节点,那么判断光线与其中的objects是否相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD-Tree的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.物体可能同时与多个AABB相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.不太好判断AABB与三角形面的相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.保存每一个与物体表面相交的grid(很难)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物体划分(Object Partitions &amp; Bounding Volume Hierarchy.BVH)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3278,7 +3862,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3411,6 +3995,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3512,7 +4116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3575,6 +4179,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5687,10 +6292,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="H160" sqref="H160"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6440,6 +7045,290 @@
         <v>413</v>
       </c>
     </row>
+    <row r="177" spans="2:4">
+      <c r="B177" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="C178" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="C181" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="C182" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="C184" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="D185" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="C186" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="D187" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="C188" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="C191" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="D192" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="193" spans="3:6">
+      <c r="D193" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="195" spans="3:6">
+      <c r="C195" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="196" spans="3:6">
+      <c r="D196" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="198" spans="3:6">
+      <c r="C198" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="199" spans="3:6">
+      <c r="C199" t="s">
+        <v>423</v>
+      </c>
+      <c r="D199" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="200" spans="3:6">
+      <c r="E200" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="201" spans="3:6">
+      <c r="F201" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="202" spans="3:6">
+      <c r="E202" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="203" spans="3:6">
+      <c r="F203" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="204" spans="3:6" ht="17.25">
+      <c r="F204" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="205" spans="3:6" ht="17.25">
+      <c r="F205" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="206" spans="3:6" ht="17.25">
+      <c r="F206" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="207" spans="3:6">
+      <c r="E207" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="208" spans="3:6" ht="17.25">
+      <c r="F208" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="209" spans="4:7" ht="17.25">
+      <c r="F209" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="210" spans="4:7" ht="17.25">
+      <c r="E210" t="s">
+        <v>440</v>
+      </c>
+      <c r="F210" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="211" spans="4:7">
+      <c r="D211" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="212" spans="4:7">
+      <c r="E212" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="213" spans="4:7">
+      <c r="E213" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="214" spans="4:7">
+      <c r="E214" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="215" spans="4:7">
+      <c r="E215" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="216" spans="4:7">
+      <c r="E216" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="217" spans="4:7">
+      <c r="F217" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="218" spans="4:7">
+      <c r="G218" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="219" spans="4:7">
+      <c r="F219" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="220" spans="4:7">
+      <c r="F220" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="221" spans="4:7">
+      <c r="G221" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="223" spans="4:7">
+      <c r="D223" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="224" spans="4:7">
+      <c r="E224" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="225" spans="4:7">
+      <c r="D225" t="s">
+        <v>423</v>
+      </c>
+      <c r="F225" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="226" spans="4:7">
+      <c r="F226" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="227" spans="4:7">
+      <c r="G227" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="228" spans="4:7">
+      <c r="G228" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="229" spans="4:7">
+      <c r="G229" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="230" spans="4:7">
+      <c r="G230" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="231" spans="4:7">
+      <c r="E231" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="232" spans="4:7">
+      <c r="E232" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="234" spans="4:7">
+      <c r="E234" s="22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="235" spans="4:7">
+      <c r="F235" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="236" spans="4:7">
+      <c r="F236" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="237" spans="4:7">
+      <c r="D237" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="238" spans="4:7">
+      <c r="D238" t="s">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="496">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3855,6 +3855,106 @@
   </si>
   <si>
     <t>物体划分(Object Partitions &amp; Bounding Volume Hierarchy.BVH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将物体分为不同的部分,再分别重建包围盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样,每个物体只可能在一个包围盒中,不存在与包围盒相交的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以不需要再求三角面与包围盒的交点,而这正是空间划分法的一个难题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外,划分的算法很重要,尽量让包围盒之间重叠的范围小,才是好的划分算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可避免的,每个包围盒可能会有相交,光线射入到相交的面上的时候,对所有涉及到的包围盒都得进行进一步判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择一个合适的维度进行划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.永远以最长的那一条轴来划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间划分与物体划分的比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AABB之间没有重叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个物体可能同时在多个AABB中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物体划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AABB之间可能重叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个物体只可能在一个AABB中,不需要计算三角面与AABB的相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.以中间的某个物体为基准来进行划分(取中间物体可以用快速选择算法)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述光照特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于几何光学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的量:Radiant flux(辐射通量),intensity(辐射强度),irradiance(辐照度,辐射通量密度),radiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射度量学(Basic radiometry):便于精确度量光照,使渲染结果更为准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irradiance:dφ/dm²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ω = sinθdθdф</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensity:I(ω) = dφ/dω,某个方向上的光源亮度,或者说单位立体角中的辐射通量,单位为cd,candela,立体角为A/r²,球面一部分面积A除以半径的平方,用来表示三维中的一个方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radiant flux:可简单认为是光的亮度,以Φ来表示,Φ = dQ/dt,单位时间内通过某一表面的光子数量,或者说光的能量对时间的微分,类似于功率,单位为lm,lumen流明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4116,7 +4216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4180,6 +4280,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6292,10 +6393,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="H263" sqref="H263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7329,6 +7430,131 @@
         <v>470</v>
       </c>
     </row>
+    <row r="239" spans="4:7">
+      <c r="E239" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="240" spans="4:7">
+      <c r="F240" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="241" spans="4:6">
+      <c r="F241" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="242" spans="4:6">
+      <c r="E242" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="243" spans="4:6">
+      <c r="E243" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="244" spans="4:6">
+      <c r="F244" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="245" spans="4:6">
+      <c r="F245" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="246" spans="4:6">
+      <c r="F246" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="247" spans="4:6">
+      <c r="F247" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="248" spans="4:6">
+      <c r="D248" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="249" spans="4:6">
+      <c r="E249" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="250" spans="4:6">
+      <c r="F250" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="251" spans="4:6">
+      <c r="F251" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="252" spans="4:6">
+      <c r="E252" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="253" spans="4:6">
+      <c r="F253" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="254" spans="4:6">
+      <c r="F254" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5">
+      <c r="B257" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="B258" t="s">
+        <v>491</v>
+      </c>
+      <c r="C258" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="C259" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="C260" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="D261" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="D262" t="s">
+        <v>494</v>
+      </c>
+      <c r="E262" s="23"/>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="D263" t="s">
+        <v>493</v>
+      </c>
+      <c r="E263" s="23"/>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="D264" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="502">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3440,6 +3440,459 @@
   </si>
   <si>
     <r>
+      <t>当t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,说明光线进入过包围盒,即光线与包围盒有交点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理t的负值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;0,说明包围盒在光线背后,没有交点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;=0,t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;0,说明光源在AABB中,必有交点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;=0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求eye-ray经过各种弹射之后与各个物体表面的交点,对此交点计算其着色,最后相加,得到该像素的最终结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用AABB加速光线与表面交点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.找出包围盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.当与光线相交的grid也与物体表面相交时,进行一次光线与表面相交的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际应用中,grid的划分不能太密(增大计算量)也不能太稀疏(加速效果很差)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般划分grid数为27*包围盒内物体数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当场景物体分布比较均匀的时候,这种grid划分法效果比较好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当物体分布不均匀的时候,这种划分法效果不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间划分(Spatial Partitions)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案:空间划分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要利用KD-Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在渲染前将空间场景用KD-Tree划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来划分空间的KD-Tree的节点需要有的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.划分轴(x?y?z?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.划分位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.包含的objects(只有叶节点才存储这一项,即当子节点为空才开始储存包含的objects)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光线射入时,从根节点开始,判断光线是否跟AABB相交,有相交的话,再判断跟子节点AABB相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子节点为空,则为叶子节点,那么判断光线与其中的objects是否相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD-Tree的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.物体可能同时与多个AABB相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.不太好判断AABB与三角形面的相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.保存每一个与物体表面相交的grid(很难)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物体划分(Object Partitions &amp; Bounding Volume Hierarchy.BVH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将物体分为不同的部分,再分别重建包围盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样,每个物体只可能在一个包围盒中,不存在与包围盒相交的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以不需要再求三角面与包围盒的交点,而这正是空间划分法的一个难题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外,划分的算法很重要,尽量让包围盒之间重叠的范围小,才是好的划分算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可避免的,每个包围盒可能会有相交,光线射入到相交的面上的时候,对所有涉及到的包围盒都得进行进一步判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择一个合适的维度进行划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.永远以最长的那一条轴来划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间划分与物体划分的比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AABB之间没有重叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个物体可能同时在多个AABB中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物体划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AABB之间可能重叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个物体只可能在一个AABB中,不需要计算三角面与AABB的相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.以中间的某个物体为基准来进行划分(取中间物体可以用快速选择算法)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述光照特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于几何光学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的量:Radiant flux(辐射通量),intensity(辐射强度),irradiance(辐照度,辐射通量密度),radiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射度量学(Basic radiometry):便于精确度量光照,使渲染结果更为准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速求光线与表面交点(构造加速结构)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>包围盒(Bounding Volumes)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:光线与包围盒不想交,则不可能与包围盒内的表面相交</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.对包围盒进行预处理,分成一个个的grid(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要点,主要有两种方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.判断光线与AABB是否相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>光线必须同时进入3对面之间,才能认为是进入了包围盒,则对3个</t>
     </r>
     <r>
@@ -3473,7 +3926,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>取最大值得到t</t>
+      <t>取最大值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(最后进入的对面)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得到t</t>
     </r>
     <r>
       <rPr>
@@ -3517,7 +3991,49 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>取最小值得到t</t>
+      <t>取最小值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最早离开的对面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得到t</t>
     </r>
     <r>
       <rPr>
@@ -3534,427 +4050,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>当t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,说明光线进入过包围盒,即光线与包围盒有交点</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理t的负值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>当t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;0,说明包围盒在光线背后,没有交点</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>当t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;=0,t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;0,说明光源在AABB中,必有交点</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt; t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &amp;&amp; t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;=0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求eye-ray经过各种弹射之后与各个物体表面的交点,对此交点计算其着色,最后相加,得到该像素的最终结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速求光线与表面交点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包围盒(Bounding Volumes):光线与包围盒不想交,则不可能与包围盒内的表面相交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用AABB加速光线与表面交点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.找出包围盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.对包围盒进行预处理,分成一个个的grid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.当与光线相交的grid也与物体表面相交时,进行一次光线与表面相交的判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际应用中,grid的划分不能太密(增大计算量)也不能太稀疏(加速效果很差)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般划分grid数为27*包围盒内物体数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当场景物体分布比较均匀的时候,这种grid划分法效果比较好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当物体分布不均匀的时候,这种划分法效果不好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间划分(Spatial Partitions)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决方案:空间划分法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要利用KD-Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在渲染前将空间场景用KD-Tree划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来划分空间的KD-Tree的节点需要有的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.划分轴(x?y?z?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.划分位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.子节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.包含的objects(只有叶节点才存储这一项,即当子节点为空才开始储存包含的objects)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光线射入时,从根节点开始,判断光线是否跟AABB相交,有相交的话,再判断跟子节点AABB相交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子节点为空,则为叶子节点,那么判断光线与其中的objects是否相交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD-Tree的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.物体可能同时与多个AABB相交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.不太好判断AABB与三角形面的相交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.保存每一个与物体表面相交的grid(很难)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解决方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物体划分(Object Partitions &amp; Bounding Volume Hierarchy.BVH)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将物体分为不同的部分,再分别重建包围盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样,每个物体只可能在一个包围盒中,不存在与包围盒相交的情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以不需要再求三角面与包围盒的交点,而这正是空间划分法的一个难题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>另外,划分的算法很重要,尽量让包围盒之间重叠的范围小,才是好的划分算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可避免的,每个包围盒可能会有相交,光线射入到相交的面上的时候,对所有涉及到的包围盒都得进行进一步判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.选择一个合适的维度进行划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.永远以最长的那一条轴来划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间划分与物体划分的比较</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AABB之间没有重叠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个物体可能同时在多个AABB中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物体划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AABB之间可能重叠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个物体只可能在一个AABB中,不需要计算三角面与AABB的相交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.以中间的某个物体为基准来进行划分(取中间物体可以用快速选择算法)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述光照特性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于几何光学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新的量:Radiant flux(辐射通量),intensity(辐射强度),irradiance(辐照度,辐射通量密度),radiance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辐射度量学(Basic radiometry):便于精确度量光照,使渲染结果更为准确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>irradiance:dφ/dm²</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ω = sinθdθdф</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intensity:I(ω) = dφ/dω,某个方向上的光源亮度,或者说单位立体角中的辐射通量,单位为cd,candela,立体角为A/r²,球面一部分面积A除以半径的平方,用来表示三维中的一个方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Radiant flux:可简单认为是光的亮度,以Φ来表示,Φ = dQ/dt,单位时间内通过某一表面的光子数量,或者说光的能量对时间的微分,类似于功率,单位为lm,lumen流明</t>
+    <t>intensity:I(ω) ≡ dΦ/dω,某个方向上的光源亮度,或者说单位立体角中的辐射通量,单位为cd,candela,立体角为A/r²,球面一部分面积A除以半径的平方,用来表示三维中的一个方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radiant flux:可简单认为是光的亮度,以Φ来表示,Φ ≡ dQ/dt,单位时间内通过某一表面的光子数量,或者说光的能量对时间的微分,类似于功率,单位为lm,lumen流明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>irradiance:E(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ≡ dΦ(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)/(cosθdA),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与入射方向垂直</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的面的单位面积上的辐射通量,也称为辐射通量密度,单位为lux,拉克丝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ω = sinθdθdφ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radiance:L(p,ω)≡d²Φ(p,ω)/(dωdAcosθ) ,单位为nit,描述光线的属性,辐射通量密度在单位立体角上的值,或者说辐射强度在单位垂直面积上的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irradiance与Radiance的区别与联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irradiance:单位面积上接受到的能量(辐射通量)的总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radiance:单位面积接受到的某个方向上的辐射通量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bidirectional Reflectance Distribution Function(BRDF,双向反射分布函数)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4216,7 +4416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4281,6 +4481,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6393,10 +6594,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G264"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="H263" sqref="H263"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="J258" sqref="J258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7153,7 +7354,7 @@
     </row>
     <row r="178" spans="2:4">
       <c r="C178" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="180" spans="2:4">
@@ -7227,16 +7428,16 @@
       </c>
     </row>
     <row r="198" spans="3:6">
-      <c r="C198" t="s">
-        <v>443</v>
+      <c r="C198" s="24" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="199" spans="3:6">
       <c r="C199" t="s">
         <v>423</v>
       </c>
-      <c r="D199" t="s">
-        <v>444</v>
+      <c r="D199" s="21" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="200" spans="3:6">
@@ -7266,100 +7467,100 @@
     </row>
     <row r="205" spans="3:6" ht="17.25">
       <c r="F205" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
     </row>
     <row r="206" spans="3:6" ht="17.25">
       <c r="F206" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="207" spans="3:6">
       <c r="E207" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="208" spans="3:6" ht="17.25">
       <c r="F208" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="209" spans="4:7" ht="17.25">
       <c r="F209" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="210" spans="4:7" ht="17.25">
       <c r="E210" t="s">
+        <v>439</v>
+      </c>
+      <c r="F210" t="s">
         <v>440</v>
-      </c>
-      <c r="F210" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="211" spans="4:7">
       <c r="D211" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="4:7">
       <c r="E212" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="213" spans="4:7">
       <c r="E213" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
     </row>
     <row r="214" spans="4:7">
       <c r="E214" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="215" spans="4:7">
       <c r="E215" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
     </row>
     <row r="216" spans="4:7">
       <c r="E216" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="217" spans="4:7">
       <c r="F217" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="218" spans="4:7">
       <c r="G218" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="219" spans="4:7">
       <c r="F219" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="220" spans="4:7">
       <c r="F220" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="221" spans="4:7">
       <c r="G221" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="223" spans="4:7">
-      <c r="D223" t="s">
-        <v>453</v>
+      <c r="D223" s="24" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="224" spans="4:7">
       <c r="E224" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="225" spans="4:7">
@@ -7367,192 +7568,222 @@
         <v>423</v>
       </c>
       <c r="F225" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226" spans="4:7">
       <c r="F226" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="227" spans="4:7">
       <c r="G227" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228" spans="4:7">
       <c r="G228" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="229" spans="4:7">
       <c r="G229" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="230" spans="4:7">
       <c r="G230" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="231" spans="4:7">
       <c r="E231" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="232" spans="4:7">
       <c r="E232" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="234" spans="4:7">
       <c r="E234" s="22" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="235" spans="4:7">
       <c r="F235" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="236" spans="4:7">
       <c r="F236" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="237" spans="4:7">
       <c r="D237" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="238" spans="4:7">
-      <c r="D238" t="s">
-        <v>470</v>
+      <c r="D238" s="24" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="4:7">
       <c r="E239" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="240" spans="4:7">
       <c r="F240" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="241" spans="4:6">
       <c r="F241" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="242" spans="4:6">
       <c r="E242" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="243" spans="4:6">
       <c r="E243" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="244" spans="4:6">
       <c r="F244" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="245" spans="4:6">
       <c r="F245" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="246" spans="4:6">
       <c r="F246" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="247" spans="4:6">
       <c r="F247" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="248" spans="4:6">
       <c r="D248" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="249" spans="4:6">
       <c r="E249" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="250" spans="4:6">
       <c r="F250" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="251" spans="4:6">
       <c r="F251" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="252" spans="4:6">
       <c r="E252" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="253" spans="4:6">
       <c r="F253" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="254" spans="4:6">
       <c r="F254" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="257" spans="2:5">
-      <c r="B257" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5">
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>486</v>
+      </c>
       <c r="B258" t="s">
-        <v>491</v>
-      </c>
-      <c r="C258" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="259" spans="2:5">
-      <c r="C259" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="260" spans="2:5">
-      <c r="C260" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="261" spans="2:5">
-      <c r="D261" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="B259" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="B260" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="C261" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="C262" t="s">
+        <v>493</v>
+      </c>
+      <c r="D262" s="23"/>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="C263" t="s">
+        <v>496</v>
+      </c>
+      <c r="D263" s="23"/>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="C264" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="262" spans="2:5">
-      <c r="D262" t="s">
-        <v>494</v>
-      </c>
-      <c r="E262" s="23"/>
-    </row>
-    <row r="263" spans="2:5">
-      <c r="D263" t="s">
-        <v>493</v>
-      </c>
-      <c r="E263" s="23"/>
-    </row>
-    <row r="264" spans="2:5">
-      <c r="D264" t="s">
+    <row r="265" spans="1:6">
+      <c r="C265" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="C267" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="D268" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="D269" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="F271" t="s">
         <v>492</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="517">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4054,60 +4054,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Radiant flux:可简单认为是光的亮度,以Φ来表示,Φ ≡ dQ/dt,单位时间内通过某一表面的光子数量,或者说光的能量对时间的微分,类似于功率,单位为lm,lumen流明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>irradiance:E(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ≡ dΦ(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)/(cosθdA),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与入射方向垂直</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的面的单位面积上的辐射通量,也称为辐射通量密度,单位为lux,拉克丝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ω = sinθdθdφ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radiance:L(p,ω)≡d²Φ(p,ω)/(dωdAcosθ) ,单位为nit,描述光线的属性,辐射通量密度在单位立体角上的值,或者说辐射强度在单位垂直面积上的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irradiance与Radiance的区别与联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irradiance:单位面积上接受到的能量(辐射通量)的总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radiance:单位面积接受到的某个方向上的辐射通量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bidirectional Reflectance Distribution Function(BRDF,双向反射分布函数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>intensity:I(ω) ≡ dΦ/dω,某个方向上的光源亮度,或者说单位立体角中的辐射通量,单位为cd,candela,立体角为A/r²,球面一部分面积A除以半径的平方,用来表示三维中的一个方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Radiant flux:可简单认为是光的亮度,以Φ来表示,Φ ≡ dQ/dt,单位时间内通过某一表面的光子数量,或者说光的能量对时间的微分,类似于功率,单位为lm,lumen流明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>irradiance:E(</t>
+    <t>微小面积从某个方向接受到的能量可视为辐射通量对面积的微分,或者说是Radiance与某个微小立体角的乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以,BRDF表示为:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>微小面积从某个方向(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)接受到的能量(入射光),辐射到另一个方向(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)的比例</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>辐射到另一个方向的能量可视为</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) ≡ dΦ(</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dL</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)/(cosθdA),</t>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
     </r>
     <r>
       <rPr>
@@ -4119,42 +4254,1134 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>与入射方向垂直</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的面的单位面积上的辐射通量,也称为辐射通量密度,单位为lux,拉克丝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ω = sinθdθdφ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Radiance:L(p,ω)≡d²Φ(p,ω)/(dωdAcosθ) ,单位为nit,描述光线的属性,辐射通量密度在单位立体角上的值,或者说辐射强度在单位垂直面积上的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>irradiance与Radiance的区别与联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>irradiance:单位面积上接受到的能量(辐射通量)的总和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Radiance:单位面积接受到的某个方向上的辐射通量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bidirectional Reflectance Distribution Function(BRDF,双向反射分布函数)</t>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,注意这里L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)是该微小面积的总入射能量的反射Radiance,dL</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)是指定的某个方向的入射能量的Radiance,所以用微分表示</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) = dΦ/(cosθdA) = L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)cosθ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Reflection Equation(反射方程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某一小块平面反射到指定方向的能量的方程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) = dL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) / dE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) = dL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) / (L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)cosθ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p,ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =∫</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">H² </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p,ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p,ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)cosθ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Rendering Equation(渲染方程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑光源的情况,某一点往指定方向发出的光加上该点往指定方向反射的光,就是该点的实际渲染结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p,ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p,ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) + ∫</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p,ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p,ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)(n · ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)dω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解渲染方程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物体的BRDF就定义了物体在渲染中的材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4162,7 +5389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4313,6 +5540,16 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6594,10 +7831,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="J258" sqref="J258"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="J284" sqref="J284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7736,44 +8973,44 @@
     </row>
     <row r="261" spans="1:6">
       <c r="C261" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="C262" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D262" s="23"/>
     </row>
     <row r="263" spans="1:6">
       <c r="C263" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D263" s="23"/>
     </row>
     <row r="264" spans="1:6">
       <c r="C264" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="C265" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="C267" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="D268" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="D269" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7783,7 +9020,83 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>501</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="17.25">
+      <c r="B273" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="C274" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="17.25">
+      <c r="D275" s="24" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="17.25">
+      <c r="C276" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="C277" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="17.25">
+      <c r="D278" s="24" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="C279" t="s">
+        <v>515</v>
+      </c>
+      <c r="D279" s="24"/>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="C280" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="B282" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="17.25">
+      <c r="C283" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="B286" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="18">
+      <c r="C287" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="541">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3274,10 +3274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Recursive(Whitted-Style) Ray Tracing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>求光线与物体表面的交点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3644,10 +3640,6 @@
       </rPr>
       <t xml:space="preserve"> &gt;=0</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求eye-ray经过各种弹射之后与各个物体表面的交点,对此交点计算其着色,最后相加,得到该像素的最终结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5378,6 +5370,240 @@
   </si>
   <si>
     <t>物体的BRDF就定义了物体在渲染中的材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某一点投射到指定方向的光照,等于该点自身辐射出来的光加上该点反射其他点的光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L为一个向量,其中每一个分量都代表全局中某一点的光照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E也是一个向量,代表着场景中光源的集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K为光照反射矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从而可得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从而有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L = E + KL</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(I-K)L = E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L = (I-K)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L = (I+K+K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+……)E</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>那么对其进行全局考虑,全局中所有点的光照,等于光源辐射出的光照加上全局所有点反射的光照(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全局光照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probability Distribution Function(PDF,概率密度函数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monte Carlo Path Tracing,蒙特卡洛路径追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monte Carlo Integration,蒙特卡洛积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f(x) = p(x) * f(x) / p(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以对f(x)求积分就等于对右边求积分,即等于求f(x) / p(x)这个函数的期望值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>则可以依照p(x)的概率分布函数对f(x) / p(x)重复多次求值,最后取其平均数,也就接近了f(x) / p(x) 的期望值,即f(x)的积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path Tracing,路径追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recursive(Whitted-Style) Ray Tracing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪光线时,光线打在高光材质上就假设其为镜面反射,打在漫反射材质上就停止追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会造成渲染结果不准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitted-Style Ray Tracing方法的局限性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求eye-ray经过各种弹射之后与各个物体表面的交点,对此交点计算其着色,最后相加(加权相加,考虑折射与反射过程中的能量损失),得到该像素的最终结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以,直接解渲染方程来得到渲染结果(用蒙特卡罗积分求近似)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5736,6 +5962,441 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2428876" cy="492186"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="761999" y="56073675"/>
+              <a:ext cx="2428876" cy="492186"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:limLoc m:val="undOvr"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ⅆ</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>= </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑓</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑋</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑝</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑋</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:nary>
+                      </m:e>
+                    </m:nary>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> , </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>~</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="761999" y="56073675"/>
+              <a:ext cx="2428876" cy="492186"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∫1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓(𝑥)ⅆ𝑥= 1/𝑁 ∑24_(𝑖=1)^𝑁▒(𝑓(𝑋_𝑖))/(𝑝(𝑋_𝑖))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  , 𝑋_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>~𝑝(𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -7831,10 +8492,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G289"/>
+  <dimension ref="A1:G322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="J284" sqref="J284"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8586,522 +9247,643 @@
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>414</v>
+        <v>534</v>
       </c>
     </row>
     <row r="178" spans="2:4">
       <c r="C178" t="s">
-        <v>441</v>
+        <v>538</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181" spans="2:4">
       <c r="C181" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="182" spans="2:4">
       <c r="C182" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="C184" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="D185" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="186" spans="2:4">
       <c r="C186" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="187" spans="2:4">
       <c r="D187" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="C188" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="C191" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="D192" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="193" spans="3:6">
       <c r="D193" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="195" spans="3:6">
       <c r="C195" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="196" spans="3:6">
       <c r="D196" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="198" spans="3:6">
       <c r="C198" s="24" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="199" spans="3:6">
       <c r="C199" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="200" spans="3:6">
       <c r="E200" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="201" spans="3:6">
       <c r="F201" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="202" spans="3:6">
       <c r="E202" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="203" spans="3:6">
       <c r="F203" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="204" spans="3:6" ht="17.25">
       <c r="F204" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="205" spans="3:6" ht="17.25">
       <c r="F205" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="206" spans="3:6" ht="17.25">
       <c r="F206" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="207" spans="3:6">
       <c r="E207" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="208" spans="3:6" ht="17.25">
       <c r="F208" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="209" spans="4:7" ht="17.25">
       <c r="F209" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="210" spans="4:7" ht="17.25">
       <c r="E210" t="s">
+        <v>438</v>
+      </c>
+      <c r="F210" t="s">
         <v>439</v>
-      </c>
-      <c r="F210" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="211" spans="4:7">
       <c r="D211" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="212" spans="4:7">
       <c r="E212" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="213" spans="4:7">
       <c r="E213" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="214" spans="4:7">
       <c r="E214" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="215" spans="4:7">
       <c r="E215" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="216" spans="4:7">
       <c r="E216" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="217" spans="4:7">
       <c r="F217" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="218" spans="4:7">
       <c r="G218" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="219" spans="4:7">
       <c r="F219" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="220" spans="4:7">
       <c r="F220" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="4:7">
       <c r="G221" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="223" spans="4:7">
       <c r="D223" s="24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="224" spans="4:7">
       <c r="E224" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="225" spans="4:7">
       <c r="D225" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="226" spans="4:7">
       <c r="F226" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="227" spans="4:7">
       <c r="G227" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="228" spans="4:7">
       <c r="G228" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="229" spans="4:7">
       <c r="G229" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="230" spans="4:7">
       <c r="G230" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="231" spans="4:7">
       <c r="E231" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="232" spans="4:7">
       <c r="E232" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="234" spans="4:7">
       <c r="E234" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="235" spans="4:7">
       <c r="F235" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="236" spans="4:7">
       <c r="F236" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="237" spans="4:7">
       <c r="D237" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="238" spans="4:7">
       <c r="D238" s="24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="239" spans="4:7">
       <c r="E239" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="240" spans="4:7">
       <c r="F240" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="4:6">
       <c r="F241" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="242" spans="4:6">
       <c r="E242" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="243" spans="4:6">
       <c r="E243" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="244" spans="4:6">
       <c r="F244" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="245" spans="4:6">
       <c r="F245" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="246" spans="4:6">
       <c r="F246" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="247" spans="4:6">
       <c r="F247" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="248" spans="4:6">
       <c r="D248" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="249" spans="4:6">
       <c r="E249" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="250" spans="4:6">
       <c r="F250" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="251" spans="4:6">
       <c r="F251" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="252" spans="4:6">
       <c r="E252" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="253" spans="4:6">
       <c r="F253" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="254" spans="4:6">
       <c r="F254" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B258" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="B259" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="B260" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="C261" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="C262" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D262" s="23"/>
     </row>
     <row r="263" spans="1:6">
       <c r="C263" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D263" s="23"/>
     </row>
     <row r="264" spans="1:6">
       <c r="C264" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="C265" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="C267" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="D268" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="D269" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="F271" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="17.25">
       <c r="B273" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="C274" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="17.25">
       <c r="D275" s="24" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="17.25">
       <c r="C276" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="C277" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="17.25">
       <c r="D278" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="C279" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D279" s="24"/>
     </row>
     <row r="280" spans="1:4">
       <c r="C280" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="B282" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="17.25">
       <c r="C283" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="B286" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="18">
       <c r="C287" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="B289" t="s">
-        <v>514</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="C290" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="C291" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="C292" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="C293" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="C294" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="C295" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="C296" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="D297" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="C298" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="16.5">
+      <c r="D299" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="16.5">
+      <c r="D300" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4">
+      <c r="B306" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4">
+      <c r="B310" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4">
+      <c r="C311" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4">
+      <c r="C312" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4">
+      <c r="C313" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4">
+      <c r="B316" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4">
+      <c r="C317" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4">
+      <c r="D318" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4">
+      <c r="D319" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3">
+      <c r="C321" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3">
+      <c r="C322" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="589">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2810,10 +2810,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法线贴图(Bump Mapping)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3319,31 +3315,6 @@
   </si>
   <si>
     <t>2.判断点是否在三角面内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>迅速判断光线与三角面交点的M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ö</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>ller Trumbore算法</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5608,6 +5579,647 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法线贴图(Normal Mapping)与凹凸贴图(Bump Mapping)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用蒙特卡罗积分求近似时,需要对一个观察点的入射光线进行采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么复杂度是指数形式,N^bounds,消耗太大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除非N取1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N不为1的情况称为分布式光线追踪,Distributed Ray Tracing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N取1的情况就是path tracing,路径追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是显然,N取1,随机性太大了,噪声会非常大,所以路径追踪算法会有噪点的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以对一个像素取多条路径(相当于超采样,对一个像素点取不同位置作为不同的采样点,多次采样求平均),相当于进行了反走样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种方法能提升效果,但是依然有噪点的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设采样次数为N,光线弹射次数为bounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算每一个点的着色结果时,取的路径若直接打到光源,则直接计算结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若不是打到光源,那么可能是从另一个点接收了反射光,这个时候,等于是进行了迭代计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么,何时是递归基(递归终点)?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯轮盘赌算法(Russian Roulette,RR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算每一个点的光照结果时,以一定的概率p来判定是否从该点射出光线,若射出,则得到的结果为Lo/p,若不射出,则结果为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么做的好处在于在每一个点做路径追踪时,其期望结果都是Lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从而大大简化了计算过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样,还是会放大噪点的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单纯限定光线弹射的次数,会损失能量,造成结果的不准确,不限定的话,硬件又无法做到相应的计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均匀采样时,路径追踪的一条光线,最终能打到光源上的光线数量很少,导致极大的浪费与不准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不在光照点的半球上采样,而直接在光源上采样,这样,所有取到的光线都会打到光源上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特卡罗积分要求,对哪采样,就要在哪积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所以需要对积分进行换元,需要找出光源上的微小面积</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与光照点对应的立体角</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>假设光照点是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,光源上的采样点是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,光源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xx'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连线的夹角是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>θ'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dω = dAcosθ'/ ||x'-x||²,(立体角的定义)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p,ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p,ωe) + ∫</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p,ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p,ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)(n · ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)cosθ'/||x"-x||²dA</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样,就可以把受光分为两部分,一是直接来源于光源,二是来自其他反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接来自光源的,用上述方法计算,不需要RR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自其他反射的,采用RR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算此部分时,要计算光源是否被遮挡(上面有相关的算法,包围盒,AABB等等等等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o+td = (1 - b1 - b2)p0 + b1p1 + b2p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>迅速判断光线与三角面交点的M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>ller Trumbore算法(课程P13,大约48分钟开始)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很难处理点光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际工程中尽量用面光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要把代码写出来,需要补充计算几何的一些算法知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未提到的话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么进行采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习相应的采样理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特卡罗积分中怎么选择最佳的pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要性采样理论(自己补充学习)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机数是否有质量差别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low discrepancy sequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光追算法进行计算的时候,每一个像素采样点得到的结果是Radiance,不是颜色值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>要转成颜色值,需要进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伽马校正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gamma Correction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5968,12 +6580,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2428876" cy="492186"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1"/>
@@ -6009,6 +6621,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6307,7 +6920,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1"/>
@@ -8492,10 +9105,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G322"/>
+  <dimension ref="A1:G363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="C322" sqref="C322"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8857,1027 +9470,1257 @@
     </row>
     <row r="84" spans="1:3">
       <c r="B84" t="s">
-        <v>336</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="B86" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="B89" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="C90" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="C91" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="C93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="C94" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="B96" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="C99" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="C103" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="C105" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="C108" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="C109" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="C110" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="D111" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="D112" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="2:5">
       <c r="C113" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="2:5">
       <c r="C114" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="2:5">
       <c r="B116" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="2:5">
       <c r="C117" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="2:5">
       <c r="D118" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="2:5">
       <c r="C119" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="2:5">
       <c r="B121" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="2:5">
       <c r="C122" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="2:5">
       <c r="B124" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="2:5">
       <c r="C125" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="2:5">
       <c r="D126" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" spans="2:5">
       <c r="E127" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="2:5">
       <c r="E128" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="4:6">
       <c r="E129" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="4:6">
       <c r="D130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="4:6">
       <c r="E131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="4:6">
       <c r="E132" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="4:6">
       <c r="E133" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="134" spans="4:6">
       <c r="F134" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="135" spans="4:6">
       <c r="F135" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="136" spans="4:6">
       <c r="F136" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="4:6">
       <c r="E137" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="138" spans="4:6">
       <c r="F138" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="139" spans="4:6">
       <c r="F139" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140" spans="4:6">
       <c r="E140" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="4:6">
       <c r="F141" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="142" spans="4:6">
       <c r="F142" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="143" spans="4:6">
       <c r="F143" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="145" spans="2:7">
       <c r="C145" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="146" spans="2:7">
       <c r="D146" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="2:7">
       <c r="E147" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="148" spans="2:7">
       <c r="F148" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="149" spans="2:7">
       <c r="E149" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="150" spans="2:7">
       <c r="E150" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="151" spans="2:7">
       <c r="F151" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="152" spans="2:7">
       <c r="G152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="154" spans="2:7">
       <c r="C154" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="155" spans="2:7">
       <c r="D155" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="157" spans="2:7">
       <c r="B157" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="158" spans="2:7">
       <c r="C158" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="159" spans="2:7">
       <c r="C159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160" spans="2:7">
       <c r="C160" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="C162" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="C164" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="D165" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="B169" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="B170" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="C171" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="C172" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="C173" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="B174" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="B175" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="178" spans="2:4">
       <c r="C178" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="181" spans="2:4">
       <c r="C181" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="2:4">
       <c r="C182" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="C184" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="D185" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="186" spans="2:4">
       <c r="C186" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="187" spans="2:4">
       <c r="D187" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="C188" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="C191" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="D192" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="193" spans="3:6">
       <c r="D193" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="195" spans="3:6">
       <c r="C195" t="s">
-        <v>426</v>
+        <v>575</v>
       </c>
     </row>
     <row r="196" spans="3:6">
       <c r="D196" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="197" spans="3:6">
+      <c r="E197" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="199" spans="3:6">
+      <c r="C199" s="24" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="200" spans="3:6">
+      <c r="C200" t="s">
+        <v>421</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="201" spans="3:6">
+      <c r="E201" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="202" spans="3:6">
+      <c r="F202" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="198" spans="3:6">
-      <c r="C198" s="24" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="199" spans="3:6">
-      <c r="C199" t="s">
-        <v>422</v>
-      </c>
-      <c r="D199" s="21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="200" spans="3:6">
-      <c r="E200" t="s">
+    <row r="203" spans="3:6">
+      <c r="E203" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="201" spans="3:6">
-      <c r="F201" t="s">
+    <row r="204" spans="3:6">
+      <c r="F204" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="202" spans="3:6">
-      <c r="E202" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="203" spans="3:6">
-      <c r="F203" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="204" spans="3:6" ht="17.25">
-      <c r="F204" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="205" spans="3:6" ht="17.25">
       <c r="F205" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
     </row>
     <row r="206" spans="3:6" ht="17.25">
       <c r="F206" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="207" spans="3:6">
-      <c r="E207" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="208" spans="3:6" ht="17.25">
-      <c r="F208" t="s">
-        <v>436</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="207" spans="3:6" ht="17.25">
+      <c r="F207" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="208" spans="3:6">
+      <c r="E208" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="209" spans="4:7" ht="17.25">
       <c r="F209" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="210" spans="4:7" ht="17.25">
+      <c r="F210" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="211" spans="4:7" ht="17.25">
+      <c r="E211" t="s">
+        <v>436</v>
+      </c>
+      <c r="F211" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="210" spans="4:7" ht="17.25">
-      <c r="E210" t="s">
+    <row r="212" spans="4:7">
+      <c r="D212" t="s">
         <v>438</v>
-      </c>
-      <c r="F210" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="211" spans="4:7">
-      <c r="D211" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="212" spans="4:7">
-      <c r="E212" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="213" spans="4:7">
       <c r="E213" t="s">
-        <v>487</v>
+        <v>439</v>
       </c>
     </row>
     <row r="214" spans="4:7">
       <c r="E214" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
     </row>
     <row r="215" spans="4:7">
       <c r="E215" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
     </row>
     <row r="216" spans="4:7">
       <c r="E216" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="217" spans="4:7">
+      <c r="E217" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="218" spans="4:7">
+      <c r="F218" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="219" spans="4:7">
+      <c r="G219" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="217" spans="4:7">
-      <c r="F217" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="218" spans="4:7">
-      <c r="G218" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="219" spans="4:7">
-      <c r="F219" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="220" spans="4:7">
       <c r="F220" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="221" spans="4:7">
+      <c r="F221" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="222" spans="4:7">
+      <c r="G222" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="221" spans="4:7">
-      <c r="G221" t="s">
+    <row r="224" spans="4:7">
+      <c r="D224" s="24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225" spans="4:7">
+      <c r="E225" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="226" spans="4:7">
+      <c r="D226" t="s">
+        <v>421</v>
+      </c>
+      <c r="F226" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="223" spans="4:7">
-      <c r="D223" s="24" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="224" spans="4:7">
-      <c r="E224" t="s">
+    <row r="227" spans="4:7">
+      <c r="F227" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="225" spans="4:7">
-      <c r="D225" t="s">
-        <v>422</v>
-      </c>
-      <c r="F225" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="226" spans="4:7">
-      <c r="F226" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="227" spans="4:7">
-      <c r="G227" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="228" spans="4:7">
       <c r="G228" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="229" spans="4:7">
       <c r="G229" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="230" spans="4:7">
       <c r="G230" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="231" spans="4:7">
-      <c r="E231" t="s">
-        <v>456</v>
+      <c r="G231" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="232" spans="4:7">
       <c r="E232" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="234" spans="4:7">
-      <c r="E234" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="233" spans="4:7">
+      <c r="E233" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="235" spans="4:7">
-      <c r="F235" t="s">
-        <v>459</v>
+      <c r="E235" s="22" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="236" spans="4:7">
       <c r="F236" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="237" spans="4:7">
+      <c r="F237" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="238" spans="4:7">
+      <c r="D238" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="237" spans="4:7">
-      <c r="D237" t="s">
+    <row r="239" spans="4:7">
+      <c r="D239" s="24" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="240" spans="4:7">
+      <c r="E240" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="238" spans="4:7">
-      <c r="D238" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="239" spans="4:7">
-      <c r="E239" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="240" spans="4:7">
-      <c r="F240" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="241" spans="4:6">
       <c r="F241" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="242" spans="4:6">
-      <c r="E242" t="s">
-        <v>468</v>
+      <c r="F242" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="243" spans="4:6">
       <c r="E243" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="244" spans="4:6">
-      <c r="F244" t="s">
-        <v>469</v>
+      <c r="E244" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="245" spans="4:6">
       <c r="F245" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="246" spans="4:6">
       <c r="F246" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="247" spans="4:6">
       <c r="F247" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="248" spans="4:6">
+      <c r="F248" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="249" spans="4:6">
+      <c r="D249" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="250" spans="4:6">
+      <c r="E250" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="248" spans="4:6">
-      <c r="D248" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="249" spans="4:6">
-      <c r="E249" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="250" spans="4:6">
-      <c r="F250" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="251" spans="4:6">
       <c r="F251" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="252" spans="4:6">
-      <c r="E252" t="s">
-        <v>476</v>
+      <c r="F252" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="253" spans="4:6">
-      <c r="F253" t="s">
-        <v>477</v>
+      <c r="E253" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="254" spans="4:6">
       <c r="F254" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" t="s">
-        <v>483</v>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="255" spans="4:6">
+      <c r="F255" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>484</v>
-      </c>
-      <c r="B258" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>482</v>
+      </c>
       <c r="B259" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="B260" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="C261" t="s">
-        <v>491</v>
+      <c r="B261" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="C262" t="s">
-        <v>499</v>
-      </c>
-      <c r="D262" s="23"/>
+        <v>489</v>
+      </c>
     </row>
     <row r="263" spans="1:6">
       <c r="C263" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D263" s="23"/>
     </row>
     <row r="264" spans="1:6">
       <c r="C264" t="s">
-        <v>492</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="D264" s="23"/>
     </row>
     <row r="265" spans="1:6">
       <c r="C265" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="C267" t="s">
-        <v>495</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="C266" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="D268" t="s">
-        <v>496</v>
+      <c r="C268" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="D269" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="F271" t="s">
-        <v>490</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="D270" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" t="s">
+      <c r="F272" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="17.25">
+      <c r="B274" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="C275" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="17.25">
-      <c r="B273" t="s">
+    <row r="276" spans="1:4" ht="17.25">
+      <c r="D276" s="24" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="C274" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="17.25">
-      <c r="D275" s="24" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="17.25">
-      <c r="C276" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" ht="17.25">
       <c r="C277" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="17.25">
-      <c r="D278" s="24" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="C279" t="s">
-        <v>513</v>
-      </c>
-      <c r="D279" s="24"/>
+    <row r="278" spans="1:4">
+      <c r="C278" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="17.25">
+      <c r="D279" s="24" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="280" spans="1:4">
       <c r="C280" t="s">
-        <v>514</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="D280" s="24"/>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" t="s">
-        <v>505</v>
+      <c r="C281" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="B282" t="s">
+      <c r="A282" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="B283" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="17.25">
+      <c r="C284" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="17.25">
-      <c r="C283" t="s">
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="B287" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" t="s">
+    <row r="288" spans="1:4" ht="18">
+      <c r="C288" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="B286" t="s">
+    <row r="290" spans="1:4">
+      <c r="B290" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="18">
-      <c r="C287" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="B289" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="C290" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="C291" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="C292" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="C293" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="C294" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="C295" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="C296" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="C297" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="D298" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="D297" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="C298" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="16.5">
-      <c r="D299" t="s">
-        <v>523</v>
+    <row r="299" spans="1:4">
+      <c r="C299" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="16.5">
       <c r="D300" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="16.5">
+      <c r="D301" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" t="s">
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="B307" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" t="s">
+    <row r="311" spans="1:4">
+      <c r="B311" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="306" spans="2:4">
-      <c r="B306" t="s">
+    <row r="312" spans="1:4">
+      <c r="C312" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="310" spans="2:4">
-      <c r="B310" t="s">
+    <row r="313" spans="1:4">
+      <c r="C313" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="311" spans="2:4">
-      <c r="C311" t="s">
+    <row r="314" spans="1:4">
+      <c r="C314" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="312" spans="2:4">
-      <c r="C312" t="s">
+    <row r="317" spans="1:4">
+      <c r="B317" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="313" spans="2:4">
-      <c r="C313" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="316" spans="2:4">
-      <c r="B316" t="s">
+    <row r="318" spans="1:4">
+      <c r="C318" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="D319" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="317" spans="2:4">
-      <c r="C317" t="s">
+    <row r="320" spans="1:4">
+      <c r="D320" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="322" spans="3:5">
+      <c r="C322" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="318" spans="2:4">
-      <c r="D318" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="319" spans="2:4">
-      <c r="D319" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="321" spans="3:3">
-      <c r="C321" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="322" spans="3:3">
-      <c r="C322" t="s">
+    <row r="323" spans="3:5">
+      <c r="C323" t="s">
+        <v>538</v>
+      </c>
+      <c r="D323" t="s">
         <v>540</v>
+      </c>
+    </row>
+    <row r="324" spans="3:5">
+      <c r="E324" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="325" spans="3:5">
+      <c r="D325" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="E325" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="326" spans="3:5">
+      <c r="D326" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="E326" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="327" spans="3:5">
+      <c r="E327" s="24" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="328" spans="3:5">
+      <c r="E328" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="329" spans="3:5">
+      <c r="E329" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="330" spans="3:5">
+      <c r="E330" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="331" spans="3:5">
+      <c r="E331" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="332" spans="3:5">
+      <c r="E332" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="333" spans="3:5">
+      <c r="E333" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="334" spans="3:5">
+      <c r="D334" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="E334" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="335" spans="3:5">
+      <c r="D335" s="24"/>
+      <c r="E335" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="336" spans="3:5">
+      <c r="D336" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="E336" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="337" spans="4:7">
+      <c r="E337" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="338" spans="4:7">
+      <c r="E338" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="339" spans="4:7">
+      <c r="E339" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="340" spans="4:7">
+      <c r="E340" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="341" spans="4:7">
+      <c r="D341" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="E341" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="342" spans="4:7">
+      <c r="D342" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="E342" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="343" spans="4:7">
+      <c r="E343" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="344" spans="4:7">
+      <c r="E344" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="345" spans="4:7">
+      <c r="E345" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="346" spans="4:7">
+      <c r="F346" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="347" spans="4:7" ht="17.25">
+      <c r="F347" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="348" spans="4:7">
+      <c r="E348" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="349" spans="4:7">
+      <c r="F349" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="350" spans="4:7">
+      <c r="G350" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="351" spans="4:7">
+      <c r="F351" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="352" spans="4:7">
+      <c r="D352" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="E352" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5">
+      <c r="E353" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5">
+      <c r="E354" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5">
+      <c r="B355" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5">
+      <c r="C356" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5">
+      <c r="D357" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5">
+      <c r="C358" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5">
+      <c r="D359" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5">
+      <c r="C360" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5">
+      <c r="D361" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5">
+      <c r="C362" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5">
+      <c r="C363" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="629">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5650,10 +5650,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>俄罗斯轮盘赌算法(Russian Roulette,RR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算每一个点的光照结果时,以一定的概率p来判定是否从该点射出光线,若射出,则得到的结果为Lo/p,若不射出,则结果为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6080,10 +6076,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这样,就可以把受光分为两部分,一是直接来源于光源,二是来自其他反射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直接来自光源的,用上述方法计算,不需要RR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6220,6 +6212,626 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这样,就可以把受光分为两部分,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一是直接来源于光源,二是来自其他反射</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>俄罗斯轮盘赌算法(Russian Roulette,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质与外观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观是通过光线与材质相互作用展现出来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Ray Tracing中,Material == BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在光栅化渲染器(blinn phong)中,材质就是各项的系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于漫反射,光照射到某一点然后均匀的散射到半球面的任意方向,可认为BRDF为常数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局考虑时,某一点往某个方向的出射光,与该点接受到的来自任意方向的漫反射入射光应该相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中由上所述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1/π</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ρ/π</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以ρ表示材质反射率(也可以表示颜色)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) = πf</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>那么直接解渲染方程(直接积分考虑到立体角的定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,把dω换成其他待积元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,很容易得出结果),可得到</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全漫反射材质(Diffuse / Lambertian Material)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛光金属材质(Glossy Material)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似镜面反射,光照往一个较小区域集中反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃或者水的材质(Ideal Reflective / Refractive Material)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准的反射/折射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦散(caustics)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射计算相应角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折射计算角度---斯内尔定律(Snell's Law)/折射定律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入射角与折射角的正弦值与折射率成反比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光子映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全反射(做光追的时候需要考虑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTDF,与BRDF结合在一起统称BSDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲涅尔反射/菲涅尔项(Fresnel Reflection / Term)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同材质的菲涅尔项不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘体跟导体不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟物体的微观结构有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算很复杂,用拟合的方式得出经验曲线(Schlick's Approximation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R(θ) = R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + (1-R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)(1-cosθ)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = [ (n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / (n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ]²</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>微表面材质/模型,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microfacet Material</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离够远时,粗糙的表面可以认为是很平的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗糙面上那些微表面认为是完全镜面反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远处看是材质,近处看是几何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表面的BRDF可以认为是微表面的法线分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9105,10 +9717,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G363"/>
+  <dimension ref="A1:G413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="C363" sqref="C363"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="I403" sqref="I403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9930,7 +10542,7 @@
     </row>
     <row r="195" spans="3:6">
       <c r="C195" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="3:6">
@@ -9940,7 +10552,7 @@
     </row>
     <row r="197" spans="3:6">
       <c r="E197" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="199" spans="3:6">
@@ -10276,6 +10888,9 @@
       <c r="C266" t="s">
         <v>492</v>
       </c>
+      <c r="E266" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="268" spans="1:6">
       <c r="C268" t="s">
@@ -10568,7 +11183,7 @@
     <row r="335" spans="3:5">
       <c r="D335" s="24"/>
       <c r="E335" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="336" spans="3:5">
@@ -10576,35 +11191,35 @@
         <v>555</v>
       </c>
       <c r="E336" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
     </row>
     <row r="337" spans="4:7">
       <c r="E337" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="338" spans="4:7">
       <c r="E338" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="339" spans="4:7">
       <c r="E339" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="340" spans="4:7">
       <c r="E340" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="341" spans="4:7">
       <c r="D341" s="24" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E341" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="342" spans="4:7">
@@ -10612,115 +11227,310 @@
         <v>555</v>
       </c>
       <c r="E342" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="343" spans="4:7">
       <c r="E343" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="344" spans="4:7">
       <c r="E344" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="345" spans="4:7">
       <c r="E345" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="346" spans="4:7">
       <c r="F346" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="347" spans="4:7" ht="17.25">
       <c r="F347" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="348" spans="4:7">
       <c r="E348" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
     </row>
     <row r="349" spans="4:7">
       <c r="F349" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="350" spans="4:7">
       <c r="G350" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="351" spans="4:7">
       <c r="F351" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="352" spans="4:7">
       <c r="D352" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="E352" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="E353" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="E354" t="s">
         <v>577</v>
       </c>
-      <c r="E352" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="353" spans="2:5">
-      <c r="E353" t="s">
+    </row>
+    <row r="355" spans="1:5">
+      <c r="B355" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="354" spans="2:5">
-      <c r="E354" t="s">
+    <row r="356" spans="1:5">
+      <c r="C356" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="355" spans="2:5">
-      <c r="B355" t="s">
+    <row r="357" spans="1:5">
+      <c r="D357" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="356" spans="2:5">
-      <c r="C356" t="s">
+    <row r="358" spans="1:5">
+      <c r="C358" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="357" spans="2:5">
-      <c r="D357" t="s">
+    <row r="359" spans="1:5">
+      <c r="D359" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="358" spans="2:5">
-      <c r="C358" t="s">
+    <row r="360" spans="1:5">
+      <c r="C360" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="359" spans="2:5">
-      <c r="D359" t="s">
+    <row r="361" spans="1:5">
+      <c r="D361" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="360" spans="2:5">
-      <c r="C360" t="s">
+    <row r="362" spans="1:5">
+      <c r="C362" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="361" spans="2:5">
-      <c r="D361" t="s">
+    <row r="363" spans="1:5">
+      <c r="C363" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="362" spans="2:5">
-      <c r="C362" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="363" spans="2:5">
-      <c r="C363" t="s">
-        <v>588</v>
+    <row r="365" spans="1:5">
+      <c r="C365" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="B368" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4">
+      <c r="B370" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4">
+      <c r="B371" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4">
+      <c r="B373" s="24" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4">
+      <c r="C374" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4">
+      <c r="C375" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4">
+      <c r="C376" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" ht="17.25">
+      <c r="D377" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4">
+      <c r="C378" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" ht="17.25">
+      <c r="D379" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4">
+      <c r="C380" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" ht="17.25">
+      <c r="D381" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4">
+      <c r="C382" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" ht="17.25">
+      <c r="D383" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3">
+      <c r="B385" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3">
+      <c r="C386" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3">
+      <c r="B388" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3">
+      <c r="C389" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3">
+      <c r="B391" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3">
+      <c r="B393" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3">
+      <c r="B395" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3">
+      <c r="C396" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3">
+      <c r="C397" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3">
+      <c r="B398" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3">
+      <c r="B400" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4">
+      <c r="C401" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4">
+      <c r="C402" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4">
+      <c r="C403" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4">
+      <c r="C404" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" ht="18">
+      <c r="D405" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4" ht="17.25">
+      <c r="D406" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4">
+      <c r="B408" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4">
+      <c r="C409" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4">
+      <c r="D410" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4">
+      <c r="D411" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4">
+      <c r="C412" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4">
+      <c r="C413" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="655">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6277,247 +6277,578 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对于漫反射,光照射到某一点然后均匀的散射到半球面的任意方向,可认为BRDF为常数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局考虑时,某一点往某个方向的出射光,与该点接受到的来自任意方向的漫反射入射光应该相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中由上所述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1/π</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ρ/π</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以ρ表示材质反射率(也可以表示颜色)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) = πf</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>那么直接解渲染方程(直接积分考虑到立体角的定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,把dω换成其他待积元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,很容易得出结果),可得到</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全漫反射材质(Diffuse / Lambertian Material)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛光金属材质(Glossy Material)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似镜面反射,光照往一个较小区域集中反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃或者水的材质(Ideal Reflective / Refractive Material)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准的反射/折射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦散(caustics)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射计算相应角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折射计算角度---斯内尔定律(Snell's Law)/折射定律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入射角与折射角的正弦值与折射率成反比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光子映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全反射(做光追的时候需要考虑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTDF,与BRDF结合在一起统称BSDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲涅尔反射/菲涅尔项(Fresnel Reflection / Term)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同材质的菲涅尔项不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘体跟导体不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟物体的微观结构有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算很复杂,用拟合的方式得出经验曲线(Schlick's Approximation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R(θ) = R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + (1-R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)(1-cosθ)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = [ (n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / (n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ]²</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>微表面材质/模型,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microfacet Material</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离够远时,粗糙的表面可以认为是很平的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗糙面上那些微表面认为是完全镜面反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远处看是材质,近处看是几何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表面的BRDF可以认为是微表面的法线分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对于漫反射,光照射到某一点然后均匀的散射到半球面的任意方向,可认为BRDF为常数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局考虑时,某一点往某个方向的出射光,与该点接受到的来自任意方向的漫反射入射光应该相等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其中由上所述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1/π</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = ρ/π</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以ρ表示材质反射率(也可以表示颜色)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ω</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) = πf</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ω</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>那么直接解渲染方程(直接积分考虑到立体角的定义</t>
-    </r>
-    <r>
-      <rPr>
+    <t>微表面BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明了不同的入射角度,反射光与折射光的比例有变化,一般而言,与法线方向越一致,反射比例越小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h: 入射方向与出射方向的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
@@ -6525,313 +6856,100 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,把dω换成其他待积元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,很容易得出结果),可得到</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全漫反射材质(Diffuse / Lambertian Material)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抛光金属材质(Glossy Material)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似镜面反射,光照往一个较小区域集中反射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃或者水的材质(Ideal Reflective / Refractive Material)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准的反射/折射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦散(caustics)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反射计算相应角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折射计算角度---斯内尔定律(Snell's Law)/折射定律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入射角与折射角的正弦值与折射率成反比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光子映射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全反射(做光追的时候需要考虑)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTDF,与BRDF结合在一起统称BSDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菲涅尔反射/菲涅尔项(Fresnel Reflection / Term)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同材质的菲涅尔项不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝缘体跟导体不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟物体的微观结构有关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算很复杂,用拟合的方式得出经验曲线(Schlick's Approximation)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R(θ) = R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + (1-R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)(1-cosθ)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = [ (n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / (n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) ]²</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>微表面材质/模型,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Microfacet Material</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离够远时,粗糙的表面可以认为是很平的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗糙面上那些微表面认为是完全镜面反射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远处看是材质,近处看是几何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表面的BRDF可以认为是微表面的法线分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+      <t>half vector</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F: 菲涅尔项,总体上决定了入射方向i与出射方向o之间的光反射量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G: shadowing-masking term,几何项.微表面之间可能互相遮挡,被遮挡的微表面会有阴影,用于修正掠射角度方向的光反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D(h): D为微表面的法线分布,只有法线方向与h一致的微表面才可正确反射,所以是D(h),对真正的反射量起决定性作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isotropic(各向同性) / Anisotropic(各向异性) 材质的BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各向同性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微表面的法线分布是均匀的,各个方向不存在太大差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各向异性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微表面的法线分布集中在某个方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入射方向与出射方向的方位角发生变化时,BRDF会不同的材质就是各向异性材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鹅绒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种拉丝的金属件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRDF的各种性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可逆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性(各部分可分拆或者相加)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足能量守恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各向同性材质的BRDF,只有入射与出射的相对方位角有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各向异性材质的BRDF,不仅与入射与出射的相对方位角有关,也与绝对方位角有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MERL BRDF Database(一个著名的BRDF库)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级光线传播理论与材质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7619,6 +7737,329 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1841017" cy="358560"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文本框 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1581150" y="75952350"/>
+              <a:ext cx="1841017" cy="358560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑜</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐹</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>h</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐺</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑜</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>h</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>h</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文本框 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1581150" y="75952350"/>
+              <a:ext cx="1841017" cy="358560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓(𝑖,𝑜)=  (𝐹(𝑖,ℎ)𝐺(𝑖,𝑜,ℎ)𝐷(ℎ))/(4(𝑛,𝑖)(𝑛,𝑜))</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9717,10 +10158,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G413"/>
+  <dimension ref="A1:G448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="I403" sqref="I403"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="K443" sqref="K443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10888,9 +11329,6 @@
       <c r="C266" t="s">
         <v>492</v>
       </c>
-      <c r="E266" t="s">
-        <v>593</v>
-      </c>
     </row>
     <row r="268" spans="1:6">
       <c r="C268" t="s">
@@ -11340,7 +11778,7 @@
     </row>
     <row r="365" spans="1:5">
       <c r="C365" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -11365,172 +11803,305 @@
     </row>
     <row r="373" spans="2:4">
       <c r="B373" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="374" spans="2:4">
       <c r="C374" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="375" spans="2:4">
       <c r="C375" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="376" spans="2:4">
       <c r="C376" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="377" spans="2:4" ht="17.25">
       <c r="D377" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="378" spans="2:4">
       <c r="C378" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="379" spans="2:4" ht="17.25">
       <c r="D379" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="380" spans="2:4">
       <c r="C380" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="381" spans="2:4" ht="17.25">
       <c r="D381" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="382" spans="2:4">
       <c r="C382" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="383" spans="2:4" ht="17.25">
       <c r="D383" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="385" spans="2:3">
       <c r="B385" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="386" spans="2:3">
       <c r="C386" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="388" spans="2:3">
       <c r="B388" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="389" spans="2:3">
       <c r="C389" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="391" spans="2:3">
       <c r="B391" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="393" spans="2:3">
       <c r="B393" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="395" spans="2:3">
       <c r="B395" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="396" spans="2:3">
       <c r="C396" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="397" spans="2:3">
       <c r="C397" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="398" spans="2:3">
       <c r="B398" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="400" spans="2:3">
       <c r="B400" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="401" spans="2:4">
       <c r="C401" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
     </row>
     <row r="402" spans="2:4">
       <c r="C402" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="403" spans="2:4">
       <c r="C403" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="404" spans="2:4">
       <c r="C404" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4">
+      <c r="C405" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4" ht="18">
+      <c r="D406" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="405" spans="2:4" ht="18">
-      <c r="D405" t="s">
+    <row r="407" spans="2:4" ht="17.25">
+      <c r="D407" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="406" spans="2:4" ht="17.25">
-      <c r="D406" t="s">
+    <row r="409" spans="2:4">
+      <c r="B409" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="408" spans="2:4">
-      <c r="B408" t="s">
+    <row r="410" spans="2:4">
+      <c r="C410" t="s">
         <v>623</v>
-      </c>
-    </row>
-    <row r="409" spans="2:4">
-      <c r="C409" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="410" spans="2:4">
-      <c r="D410" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="411" spans="2:4">
       <c r="D411" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="412" spans="2:4">
-      <c r="C412" t="s">
-        <v>627</v>
+      <c r="D412" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="413" spans="2:4">
       <c r="C413" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4">
+      <c r="C414" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4">
+      <c r="C415" t="s">
         <v>628</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4">
+      <c r="C419" t="s">
+        <v>630</v>
+      </c>
+      <c r="D419" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4">
+      <c r="D420" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4">
+      <c r="D421" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4">
+      <c r="D422" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4">
+      <c r="B424" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4">
+      <c r="C425" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4">
+      <c r="D426" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4">
+      <c r="D427" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4">
+      <c r="C428" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4">
+      <c r="D429" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4">
+      <c r="D430" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4">
+      <c r="D431" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="C433" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="C434" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="C435" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="B437" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="C438" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="C439" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="C440" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="C441" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="B443" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="B444" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="B445" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="676">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6950,6 +6950,90 @@
   </si>
   <si>
     <t>高级光线传播理论与材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无偏光线传播(Unbiased light transport methods)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metropolis light transport(MLT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有偏光线传播(Biased light transport methods)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertex connection and merging(VCM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photon mapping,光子映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时辐射度算法(Instant radiosity,VPL/many light methods)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间接光表示成许多个小光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光线传播理论实际都是在解渲染方程,而在此过程中计算积分时要用的蒙特卡罗算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有偏理论涉及到的蒙特卡罗算法是有偏的,无偏理论涉及到的蒙特卡罗算法是无偏的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所谓有偏无偏,是指相应的蒙特卡罗估计的期望值与实际值是否一致(无论怎么采样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致:虽然有偏,但是当取样数量达到无穷的时候,期望值会收敛到正确值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bidirectional path tracing(BDPT),双向路径追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对受直接光照影响较少的点也比较准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度慢,很难实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从光源发出半路径,从视点发出半路径,最后相连,得到完整的光路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用马尔可夫链来进行采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合复杂的光路传播的场景,比较好做出水的焦散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个像素都是在自己的局部空间进行计算,很难对其速度进行解析,无法进行实时渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别适合做焦散(caustics)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合Specular-Diffuse-Specular(SDS)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7745,8 +7829,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1841017" cy="358560"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文本框 3"/>
@@ -7782,6 +7866,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8010,7 +8095,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文本框 3"/>
@@ -10158,10 +10243,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G448"/>
+  <dimension ref="A1:G475"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="K443" sqref="K443"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="D467" sqref="D467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12104,6 +12189,111 @@
         <v>654</v>
       </c>
     </row>
+    <row r="450" spans="2:4">
+      <c r="B450" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4">
+      <c r="C451" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="452" spans="2:4">
+      <c r="D452" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="453" spans="2:4">
+      <c r="D453" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4">
+      <c r="D454" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4">
+      <c r="C456" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4">
+      <c r="D457" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4">
+      <c r="D458" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4">
+      <c r="D459" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4">
+      <c r="D460" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4">
+      <c r="B461" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4">
+      <c r="C462" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4">
+      <c r="D463" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="464" spans="2:4">
+      <c r="D464" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3">
+      <c r="C466" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3">
+      <c r="B468" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3">
+      <c r="B469" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3">
+      <c r="B472" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3">
+      <c r="B473" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3">
+      <c r="B474" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3">
+      <c r="B475" t="s">
+        <v>665</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="682">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6084,956 +6084,1004 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>o+td = (1 - b1 - b2)p0 + b1p1 + b2p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>迅速判断光线与三角面交点的M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>ller Trumbore算法(课程P13,大约48分钟开始)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很难处理点光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际工程中尽量用面光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要把代码写出来,需要补充计算几何的一些算法知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未提到的话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么进行采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习相应的采样理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特卡罗积分中怎么选择最佳的pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要性采样理论(自己补充学习)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机数是否有质量差别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low discrepancy sequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光追算法进行计算的时候,每一个像素采样点得到的结果是Radiance,不是颜色值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>要转成颜色值,需要进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伽马校正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gamma Correction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这样,就可以把受光分为两部分,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一是直接来源于光源,二是来自其他反射</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>俄罗斯轮盘赌算法(Russian Roulette,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质与外观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观是通过光线与材质相互作用展现出来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Ray Tracing中,Material == BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在光栅化渲染器(blinn phong)中,材质就是各项的系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于漫反射,光照射到某一点然后均匀的散射到半球面的任意方向,可认为BRDF为常数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局考虑时,某一点往某个方向的出射光,与该点接受到的来自任意方向的漫反射入射光应该相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中由上所述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1/π</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ρ/π</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以ρ表示材质反射率(也可以表示颜色)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) = πf</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>那么直接解渲染方程(直接积分考虑到立体角的定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,把dω换成其他待积元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,很容易得出结果),可得到</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全漫反射材质(Diffuse / Lambertian Material)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛光金属材质(Glossy Material)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似镜面反射,光照往一个较小区域集中反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃或者水的材质(Ideal Reflective / Refractive Material)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准的反射/折射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦散(caustics)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射计算相应角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折射计算角度---斯内尔定律(Snell's Law)/折射定律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入射角与折射角的正弦值与折射率成反比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光子映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全反射(做光追的时候需要考虑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTDF,与BRDF结合在一起统称BSDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲涅尔反射/菲涅尔项(Fresnel Reflection / Term)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同材质的菲涅尔项不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘体跟导体不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟物体的微观结构有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算很复杂,用拟合的方式得出经验曲线(Schlick's Approximation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R(θ) = R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + (1-R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)(1-cosθ)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = [ (n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / (n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ]²</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>微表面材质/模型,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microfacet Material</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离够远时,粗糙的表面可以认为是很平的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗糙面上那些微表面认为是完全镜面反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远处看是材质,近处看是几何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表面的BRDF可以认为是微表面的法线分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微表面BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明了不同的入射角度,反射光与折射光的比例有变化,一般而言,与法线方向越一致,反射比例越小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h: 入射方向与出射方向的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>half vector</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F: 菲涅尔项,总体上决定了入射方向i与出射方向o之间的光反射量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G: shadowing-masking term,几何项.微表面之间可能互相遮挡,被遮挡的微表面会有阴影,用于修正掠射角度方向的光反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D(h): D为微表面的法线分布,只有法线方向与h一致的微表面才可正确反射,所以是D(h),对真正的反射量起决定性作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isotropic(各向同性) / Anisotropic(各向异性) 材质的BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各向同性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微表面的法线分布是均匀的,各个方向不存在太大差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各向异性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微表面的法线分布集中在某个方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入射方向与出射方向的方位角发生变化时,BRDF会不同的材质就是各向异性材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鹅绒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种拉丝的金属件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRDF的各种性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可逆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性(各部分可分拆或者相加)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足能量守恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各向同性材质的BRDF,只有入射与出射的相对方位角有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各向异性材质的BRDF,不仅与入射与出射的相对方位角有关,也与绝对方位角有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MERL BRDF Database(一个著名的BRDF库)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级光线传播理论与材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无偏光线传播(Unbiased light transport methods)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metropolis light transport(MLT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有偏光线传播(Biased light transport methods)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertex connection and merging(VCM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photon mapping,光子映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时辐射度算法(Instant radiosity,VPL/many light methods)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间接光表示成许多个小光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光线传播理论实际都是在解渲染方程,而在此过程中计算积分时要用的蒙特卡罗算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有偏理论涉及到的蒙特卡罗算法是有偏的,无偏理论涉及到的蒙特卡罗算法是无偏的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所谓有偏无偏,是指相应的蒙特卡罗估计的期望值与实际值是否一致(无论怎么采样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致:虽然有偏,但是当取样数量达到无穷的时候,期望值会收敛到正确值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bidirectional path tracing(BDPT),双向路径追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对受直接光照影响较少的点也比较准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度慢,很难实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从光源发出半路径,从视点发出半路径,最后相连,得到完整的光路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用马尔可夫链来进行采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合复杂的光路传播的场景,比较好做出水的焦散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个像素都是在自己的局部空间进行计算,很难对其速度进行解析,无法进行实时渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别适合做焦散(caustics)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合Specular-Diffuse-Specular(SDS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当像素点不直接被光源所照亮时(被遮挡),渲染可能消耗比较大或者不准确(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解决方案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:双向路径追踪或者光子映射)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>计算此部分时,要计算光源是否被遮挡(上面有相关的算法,包围盒,AABB等等等等)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o+td = (1 - b1 - b2)p0 + b1p1 + b2p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>迅速判断光线与三角面交点的M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ö</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>ller Trumbore算法(课程P13,大约48分钟开始)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很难处理点光源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际工程中尽量用面光源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要把代码写出来,需要补充计算几何的一些算法知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未提到的话题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么进行采样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习相应的采样理论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙特卡罗积分中怎么选择最佳的pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要性采样理论(自己补充学习)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机数是否有质量差别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low discrepancy sequences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光追算法进行计算的时候,每一个像素采样点得到的结果是Radiance,不是颜色值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>要转成颜色值,需要进行</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>伽马校正</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gamma Correction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>这样,就可以把受光分为两部分,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>一是直接来源于光源,二是来自其他反射</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>俄罗斯轮盘赌算法(Russian Roulette,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质与外观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观是通过光线与材质相互作用展现出来的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在Ray Tracing中,Material == BRDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在光栅化渲染器(blinn phong)中,材质就是各项的系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于漫反射,光照射到某一点然后均匀的散射到半球面的任意方向,可认为BRDF为常数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局考虑时,某一点往某个方向的出射光,与该点接受到的来自任意方向的漫反射入射光应该相等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其中由上所述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1/π</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = ρ/π</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以ρ表示材质反射率(也可以表示颜色)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ω</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) = πf</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ω</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>那么直接解渲染方程(直接积分考虑到立体角的定义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,把dω换成其他待积元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,很容易得出结果),可得到</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全漫反射材质(Diffuse / Lambertian Material)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抛光金属材质(Glossy Material)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似镜面反射,光照往一个较小区域集中反射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃或者水的材质(Ideal Reflective / Refractive Material)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准的反射/折射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦散(caustics)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反射计算相应角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折射计算角度---斯内尔定律(Snell's Law)/折射定律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入射角与折射角的正弦值与折射率成反比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光子映射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全反射(做光追的时候需要考虑)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTDF,与BRDF结合在一起统称BSDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菲涅尔反射/菲涅尔项(Fresnel Reflection / Term)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同材质的菲涅尔项不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝缘体跟导体不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟物体的微观结构有关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算很复杂,用拟合的方式得出经验曲线(Schlick's Approximation)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R(θ) = R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + (1-R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)(1-cosθ)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = [ (n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / (n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) ]²</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>微表面材质/模型,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Microfacet Material</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离够远时,粗糙的表面可以认为是很平的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗糙面上那些微表面认为是完全镜面反射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远处看是材质,近处看是几何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表面的BRDF可以认为是微表面的法线分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微表面BRDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明了不同的入射角度,反射光与折射光的比例有变化,一般而言,与法线方向越一致,反射比例越小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>h: 入射方向与出射方向的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>half vector</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F: 菲涅尔项,总体上决定了入射方向i与出射方向o之间的光反射量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G: shadowing-masking term,几何项.微表面之间可能互相遮挡,被遮挡的微表面会有阴影,用于修正掠射角度方向的光反射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D(h): D为微表面的法线分布,只有法线方向与h一致的微表面才可正确反射,所以是D(h),对真正的反射量起决定性作用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Isotropic(各向同性) / Anisotropic(各向异性) 材质的BRDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各向同性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微表面的法线分布是均匀的,各个方向不存在太大差异</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各向异性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微表面的法线分布集中在某个方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入射方向与出射方向的方位角发生变化时,BRDF会不同的材质就是各向异性材质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天鹅绒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种拉丝的金属件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRDF的各种性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非负</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可逆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线性(各部分可分拆或者相加)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满足能量守恒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各向同性材质的BRDF,只有入射与出射的相对方位角有关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各向异性材质的BRDF,不仅与入射与出射的相对方位角有关,也与绝对方位角有关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测量BRDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示BRDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MERL BRDF Database(一个著名的BRDF库)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级光线传播理论与材质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无偏光线传播(Unbiased light transport methods)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metropolis light transport(MLT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有偏光线传播(Biased light transport methods)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vertex connection and merging(VCM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Photon mapping,光子映射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时辐射度算法(Instant radiosity,VPL/many light methods)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间接光表示成许多个小光源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光线传播理论实际都是在解渲染方程,而在此过程中计算积分时要用的蒙特卡罗算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有偏理论涉及到的蒙特卡罗算法是有偏的,无偏理论涉及到的蒙特卡罗算法是无偏的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所谓有偏无偏,是指相应的蒙特卡罗估计的期望值与实际值是否一致(无论怎么采样)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一致:虽然有偏,但是当取样数量达到无穷的时候,期望值会收敛到正确值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bidirectional path tracing(BDPT),双向路径追踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对受直接光照影响较少的点也比较准确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度慢,很难实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从光源发出半路径,从视点发出半路径,最后相连,得到完整的光路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用马尔可夫链来进行采样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适合复杂的光路传播的场景,比较好做出水的焦散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各个像素都是在自己的局部空间进行计算,很难对其速度进行解析,无法进行实时渲染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特别适合做焦散(caustics)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适合Specular-Diffuse-Specular(SDS)</t>
+    <t>将双向路径追踪与光子映射结合起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把光源直接照亮的地方视作新的光源,进行递归计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点:(相对来说)渲染速度比较快、对漫反射场景的渲染结果通常较好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点:1做不了glossy,2当要渲染的点距离光源很近时,会出现错误结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级外观建模(Advanced Appearance Modeling)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7305,7 +7353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7371,6 +7419,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7825,7 +7874,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>415</xdr:row>
+      <xdr:row>416</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1841017" cy="358560"/>
@@ -10243,10 +10292,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G475"/>
+  <dimension ref="A1:G482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="D467" sqref="D467"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="G469" sqref="G469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11068,7 +11117,7 @@
     </row>
     <row r="195" spans="3:6">
       <c r="C195" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="196" spans="3:6">
@@ -11078,7 +11127,7 @@
     </row>
     <row r="197" spans="3:6">
       <c r="E197" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="199" spans="3:6">
@@ -11714,7 +11763,7 @@
         <v>555</v>
       </c>
       <c r="E336" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="337" spans="4:7">
@@ -11780,7 +11829,7 @@
     </row>
     <row r="348" spans="4:7">
       <c r="E348" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="349" spans="4:7">
@@ -11789,8 +11838,8 @@
       </c>
     </row>
     <row r="350" spans="4:7">
-      <c r="G350" t="s">
-        <v>571</v>
+      <c r="G350" s="25" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="351" spans="4:7">
@@ -11800,498 +11849,528 @@
     </row>
     <row r="352" spans="4:7">
       <c r="D352" s="24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E352" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="E353" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="E354" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="E355" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="B356" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
-      <c r="B355" t="s">
+    <row r="357" spans="1:5">
+      <c r="C357" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
-      <c r="C356" t="s">
+    <row r="358" spans="1:5">
+      <c r="D358" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
-      <c r="D357" t="s">
+    <row r="359" spans="1:5">
+      <c r="C359" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
-      <c r="C358" t="s">
+    <row r="360" spans="1:5">
+      <c r="D360" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
-      <c r="D359" t="s">
+    <row r="361" spans="1:5">
+      <c r="C361" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
-      <c r="C360" t="s">
+    <row r="362" spans="1:5">
+      <c r="D362" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="D361" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="C362" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="C363" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="C365" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
-      <c r="A367" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="C364" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="C366" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4">
+      <c r="B369" t="s">
         <v>589</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
-      <c r="B368" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="370" spans="2:4">
-      <c r="B370" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="371" spans="2:4">
       <c r="B371" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="373" spans="2:4">
-      <c r="B373" s="24" t="s">
-        <v>603</v>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4">
+      <c r="B372" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="374" spans="2:4">
-      <c r="C374" t="s">
-        <v>593</v>
+      <c r="B374" s="24" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="375" spans="2:4">
       <c r="C375" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="376" spans="2:4">
       <c r="C376" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="377" spans="2:4" ht="17.25">
-      <c r="D377" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4">
+      <c r="C377" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="378" spans="2:4">
-      <c r="C378" t="s">
+    <row r="378" spans="2:4" ht="17.25">
+      <c r="D378" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4">
+      <c r="C379" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" ht="17.25">
+      <c r="D380" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="379" spans="2:4" ht="17.25">
-      <c r="D379" t="s">
+    <row r="381" spans="2:4">
+      <c r="C381" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" ht="17.25">
+      <c r="D382" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="380" spans="2:4">
-      <c r="C380" t="s">
+    <row r="383" spans="2:4">
+      <c r="C383" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" ht="17.25">
+      <c r="D384" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="381" spans="2:4" ht="17.25">
-      <c r="D381" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="382" spans="2:4">
-      <c r="C382" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="383" spans="2:4" ht="17.25">
-      <c r="D383" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="385" spans="2:3">
-      <c r="B385" t="s">
+    <row r="386" spans="2:3">
+      <c r="B386" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3">
+      <c r="C387" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="386" spans="2:3">
-      <c r="C386" t="s">
+    <row r="389" spans="2:3">
+      <c r="B389" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="388" spans="2:3">
-      <c r="B388" t="s">
+    <row r="390" spans="2:3">
+      <c r="C390" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="389" spans="2:3">
-      <c r="C389" t="s">
+    <row r="392" spans="2:3">
+      <c r="B392" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3">
+      <c r="B394" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="391" spans="2:3">
-      <c r="B391" t="s">
+    <row r="396" spans="2:3">
+      <c r="B396" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="393" spans="2:3">
-      <c r="B393" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="395" spans="2:3">
-      <c r="B395" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="396" spans="2:3">
-      <c r="C396" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="397" spans="2:3">
       <c r="C397" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3">
+      <c r="C398" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3">
+      <c r="B399" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="398" spans="2:3">
-      <c r="B398" t="s">
+    <row r="401" spans="2:4">
+      <c r="B401" t="s">
         <v>614</v>
-      </c>
-    </row>
-    <row r="400" spans="2:3">
-      <c r="B400" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="401" spans="2:4">
-      <c r="C401" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="402" spans="2:4">
       <c r="C402" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="403" spans="2:4">
       <c r="C403" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="404" spans="2:4">
       <c r="C404" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="405" spans="2:4">
       <c r="C405" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4">
+      <c r="C406" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4" ht="18">
+      <c r="D407" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="406" spans="2:4" ht="18">
-      <c r="D406" t="s">
+    <row r="408" spans="2:4" ht="17.25">
+      <c r="D408" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="407" spans="2:4" ht="17.25">
-      <c r="D407" t="s">
+    <row r="410" spans="2:4">
+      <c r="B410" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="409" spans="2:4">
-      <c r="B409" t="s">
+    <row r="411" spans="2:4">
+      <c r="C411" t="s">
         <v>622</v>
-      </c>
-    </row>
-    <row r="410" spans="2:4">
-      <c r="C410" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="411" spans="2:4">
-      <c r="D411" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="412" spans="2:4">
       <c r="D412" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="413" spans="2:4">
-      <c r="C413" t="s">
-        <v>626</v>
+      <c r="D413" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="414" spans="2:4">
       <c r="C414" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="415" spans="2:4">
       <c r="C415" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="419" spans="2:4">
-      <c r="C419" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4">
+      <c r="C416" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4">
+      <c r="C420" t="s">
+        <v>629</v>
+      </c>
+      <c r="D420" t="s">
         <v>630</v>
-      </c>
-      <c r="D419" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="420" spans="2:4">
-      <c r="D420" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="421" spans="2:4">
       <c r="D421" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="422" spans="2:4">
       <c r="D422" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4">
+      <c r="D423" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4">
+      <c r="B425" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="424" spans="2:4">
-      <c r="B424" t="s">
+    <row r="426" spans="2:4">
+      <c r="C426" t="s">
         <v>635</v>
-      </c>
-    </row>
-    <row r="425" spans="2:4">
-      <c r="C425" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="426" spans="2:4">
-      <c r="D426" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="427" spans="2:4">
       <c r="D427" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="428" spans="2:4">
-      <c r="C428" t="s">
-        <v>638</v>
+      <c r="D428" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="429" spans="2:4">
-      <c r="D429" t="s">
-        <v>639</v>
+      <c r="C429" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="430" spans="2:4">
       <c r="D430" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="431" spans="2:4">
       <c r="D431" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
-      <c r="C433" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4">
+      <c r="D432" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3">
+      <c r="C434" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3">
+      <c r="C435" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3">
+      <c r="C436" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3">
+      <c r="B438" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
-      <c r="C434" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3">
-      <c r="C435" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
-      <c r="B437" t="s">
+    <row r="439" spans="2:3">
+      <c r="C439" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
-      <c r="C438" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3">
-      <c r="C439" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="2:3">
       <c r="C440" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="2:3">
       <c r="C441" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
-      <c r="B443" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3">
+      <c r="C442" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3">
+      <c r="B444" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3">
+      <c r="B445" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
-      <c r="B444" t="s">
+    <row r="446" spans="2:3">
+      <c r="B446" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
-      <c r="B445" t="s">
+    <row r="449" spans="1:4">
+      <c r="A449" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
-      <c r="A448" t="s">
+    <row r="451" spans="1:4">
+      <c r="B451" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="450" spans="2:4">
-      <c r="B450" t="s">
+    <row r="452" spans="1:4">
+      <c r="C452" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="D453" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="D454" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="D455" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="C457" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="451" spans="2:4">
-      <c r="C451" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="452" spans="2:4">
-      <c r="D452" t="s">
+    <row r="458" spans="1:4">
+      <c r="D458" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="453" spans="2:4">
-      <c r="D453" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="454" spans="2:4">
-      <c r="D454" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="456" spans="2:4">
-      <c r="C456" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="457" spans="2:4">
-      <c r="D457" t="s">
+    <row r="459" spans="1:4">
+      <c r="D459" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="458" spans="2:4">
-      <c r="D458" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="459" spans="2:4">
-      <c r="D459" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="460" spans="2:4">
+    <row r="460" spans="1:4">
       <c r="D460" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="461" spans="2:4">
-      <c r="B461" t="s">
+    <row r="461" spans="1:4">
+      <c r="D461" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="B462" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="C463" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="D464" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4">
+      <c r="D465" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4">
+      <c r="C467" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="462" spans="2:4">
-      <c r="C462" t="s">
+    <row r="468" spans="2:4">
+      <c r="D468" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4">
+      <c r="B470" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="463" spans="2:4">
-      <c r="D463" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="464" spans="2:4">
-      <c r="D464" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="466" spans="2:3">
-      <c r="C466" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="468" spans="2:3">
-      <c r="B468" t="s">
+    <row r="471" spans="2:4">
+      <c r="B471" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="469" spans="2:3">
-      <c r="B469" t="s">
+    <row r="472" spans="2:4">
+      <c r="C472" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4">
+      <c r="C473" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4">
+      <c r="C474" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4">
+      <c r="B476" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="472" spans="2:3">
-      <c r="B472" t="s">
+    <row r="477" spans="2:4">
+      <c r="B477" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="473" spans="2:3">
-      <c r="B473" t="s">
+    <row r="478" spans="2:4">
+      <c r="B478" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="474" spans="2:3">
-      <c r="B474" t="s">
+    <row r="479" spans="2:4">
+      <c r="B479" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="475" spans="2:3">
-      <c r="B475" t="s">
-        <v>665</v>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="705">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7082,6 +7082,98 @@
   </si>
   <si>
     <t>高级外观建模(Advanced Appearance Modeling)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非表面模型(Non-surface models)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散射介质(Participating media)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头发/毛发(Hair/fur/fiber,BCSDF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表面模型(surface models)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半透明材质(Translucent material,BSSRDF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂模型(Detailed material,non-statistical BRDF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序化生成外观(Procedural appearance)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾/云等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光线射入介质中会被散射以及吸收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何散射由Phase Function定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kajiya-Kay Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marschner Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把头发看成类似玻璃的圆柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种光线:直接反射R,穿进去再穿出来TT,穿进去反射再穿出来TRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Marschner Model基础上把毛发视作三层(最外层是表皮,中间是介质,最内是髓质,髓质性质类似于散射介质)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double Cylinder Model(Yan Model)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颗粒状材质(Granular material)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译不太正确.Translucent材质应该是在穿过材质的过程中还有散射(次表面散射)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次表面散射(Subsurface Scattering)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散射方程(Scattering Function),需要BSSRDF,在BRDF的基础上加上散射项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dipole Approximation,认为光照在次表面散射介质上,近似于是在内部以及对称的上方各自有一个光源在向四周散射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10292,10 +10384,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G482"/>
+  <dimension ref="A1:G508"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="G469" sqref="G469"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="I482" sqref="I482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12368,9 +12460,124 @@
         <v>664</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" spans="1:5">
       <c r="A482" t="s">
         <v>681</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="B483" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="C484" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="D485" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="D486" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="D487" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="C488" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="D489" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="D490" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="E491" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="E492" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="D493" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="E494" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="C495" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="D496" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4">
+      <c r="B498" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4">
+      <c r="C499" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4">
+      <c r="D500" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4">
+      <c r="D501" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4">
+      <c r="D502" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4">
+      <c r="D503" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="504" spans="2:4">
+      <c r="C504" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="506" spans="2:4">
+      <c r="C506" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="508" spans="2:4">
+      <c r="B508" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="717">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7109,10 +7109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复杂模型(Detailed material,non-statistical BRDF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>程序化生成外观(Procedural appearance)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7174,6 +7170,58 @@
   </si>
   <si>
     <t>Dipole Approximation,认为光照在次表面散射介质上,近似于是在内部以及对称的上方各自有一个光源在向四周散射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确的理解是把织物理解为空间中分布的体积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确,但是消耗特别大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染速度快,但相对来说不太准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染每一根线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很准确,但是消耗过于巨大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>织物理解成物体表面,BRDF方式渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂有细节模型(Detailed material,non-statistical BRDF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D noise函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不实际建模,用的时候根据函数取值(类似于隐式几何)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形、水面等等,都可以用noise函数来做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机,Cameras</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棱镜,Lenses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光场,Light Fields</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10384,10 +10432,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G508"/>
+  <dimension ref="A1:G523"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="I482" sqref="I482"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A503" workbookViewId="0">
+      <selection activeCell="I522" sqref="I522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12477,17 +12525,17 @@
     </row>
     <row r="485" spans="1:5">
       <c r="D485" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="D486" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="487" spans="1:5">
       <c r="D487" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -12497,87 +12545,147 @@
     </row>
     <row r="489" spans="1:5">
       <c r="D489" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="D490" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="E491" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="492" spans="1:5">
       <c r="E492" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="D493" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="494" spans="1:5">
       <c r="E494" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="495" spans="1:5">
       <c r="C495" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="496" spans="1:5">
       <c r="D496" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="498" spans="2:4">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="498" spans="2:5">
       <c r="B498" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="499" spans="2:4">
+    <row r="499" spans="2:5">
       <c r="C499" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="500" spans="2:4">
+    <row r="500" spans="2:5">
       <c r="D500" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="501" spans="2:5">
+      <c r="D501" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="501" spans="2:4">
-      <c r="D501" t="s">
+    <row r="502" spans="2:5">
+      <c r="D502" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="502" spans="2:4">
-      <c r="D502" t="s">
+    <row r="503" spans="2:5">
+      <c r="D503" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="503" spans="2:4">
-      <c r="D503" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="504" spans="2:4">
+    <row r="504" spans="2:5">
       <c r="C504" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="506" spans="2:4">
-      <c r="C506" t="s">
+    <row r="505" spans="2:5">
+      <c r="D505" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="506" spans="2:5">
+      <c r="E506" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="507" spans="2:5">
+      <c r="D507" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="508" spans="2:5">
+      <c r="E508" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="509" spans="2:5">
+      <c r="D509" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="510" spans="2:5">
+      <c r="E510" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="511" spans="2:5">
+      <c r="C511" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="B513" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="508" spans="2:4">
-      <c r="B508" t="s">
-        <v>689</v>
+    <row r="514" spans="1:3">
+      <c r="C514" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="C515" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="C516" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="726">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7222,6 +7222,42 @@
   </si>
   <si>
     <t>光场,Light Fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field of View,FOV视场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义视场的时候通常将感光元件的尺寸定为35mm格式为基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曝光度Exposure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exposure = time X irradiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曝光度控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感光度(ISO-Gain):在结果上再乘上一个值,是一个后处理手段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快门时间(Shutter Speed):控制曝光时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光圈尺寸(Aperture Size):越大接收到的光能量越多,用F数(F-stop)来表示,是光圈直径的倒数,F数越大,光圈越小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10432,10 +10468,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G523"/>
+  <dimension ref="A1:G530"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="I522" sqref="I522"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A506" workbookViewId="0">
+      <selection activeCell="C526" sqref="C526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12653,38 +12689,81 @@
         <v>710</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:4">
       <c r="B513" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:4">
       <c r="C514" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:4">
       <c r="C515" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:4">
       <c r="C516" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:4">
       <c r="A519" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
-      <c r="A521" t="s">
+    <row r="520" spans="1:4">
+      <c r="B520" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="C521" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="C522" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="D523" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="B524" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="C525" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="C526" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="C527" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="523" spans="1:3">
-      <c r="A523" t="s">
+      <c r="D528" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" t="s">
         <v>716</v>
       </c>
     </row>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="760">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7217,14 +7217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>棱镜,Lenses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光场,Light Fields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Field of View,FOV视场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7257,7 +7249,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光圈尺寸(Aperture Size):越大接收到的光能量越多,用F数(F-stop)来表示,是光圈直径的倒数,F数越大,光圈越小</t>
+    <t>景深模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>光圈尺寸(Aperture Size):越大接收到的光能量越多,用F数(F-stop)来表示,与光圈直径的倒数成正比(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>焦距除以光圈直径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),F数越大,代表着光圈越小</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透镜,Lenses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色与感知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光场,Light Fields / Lumigraph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全光函数,The Plenoptic Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到的所有东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(θ,φ,λ,t,Vx,Vy,Vz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光场是全光函数的一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在任何一个位置往任何一个方向去的光的强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光场摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录光场信息(光场函数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spectral Power Distribution,SPD,谱功率密度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的波长的强度分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD是线性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视锥细胞分为三种:S,M,L,分别对短中长波长敏感,感知到对应波长后,向大脑传递对应的信号,大脑再处理识别对应信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人感知到颜色的原理:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼睛就是摄像机,光传递到视网膜上,被视网膜上的视杆细胞(感知光强)跟视锥细胞(感知颜色)所感知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同色异谱,Metamerism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种光谱不同的光在人眼中颜色一样的现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB色彩空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加色系统:不同颜色混合起来之后会趋近白色(计算机颜色系统)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减色系统:不同颜色混合起来之后会趋近黑色(颜料混合)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIE RGB COLOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R 700nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G 546.1nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 435.8nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIE RGB Color Matching Function匹配函数,某种波长的光要用怎样的RGB来混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSB色彩空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hue色调,决定基础颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saturation饱和度,越接近0则越接近白色(越不饱和),越接近1则越接近色调本身的颜色(越饱和)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brightness亮度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lab色彩空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白跟黑互补,红跟绿互补,蓝跟黄互补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互补色,跟人脑有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画与模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8370,6 +8530,240 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="802143" cy="347659"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1104900" y="96850200"/>
+              <a:ext cx="802143" cy="347659"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=  </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑧</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+ </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑧</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑜</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1104900" y="96850200"/>
+              <a:ext cx="802143" cy="347659"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1/𝑓=   1/𝑧_𝑖 +  1/𝑧_𝑜 </a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10468,10 +10862,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G530"/>
+  <dimension ref="A1:I573"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A506" workbookViewId="0">
-      <selection activeCell="C526" sqref="C526"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A549" workbookViewId="0">
+      <selection activeCell="J571" sqref="J571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12716,55 +13110,229 @@
     </row>
     <row r="520" spans="1:4">
       <c r="B520" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="521" spans="1:4">
       <c r="C521" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="522" spans="1:4">
       <c r="C522" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="523" spans="1:4">
       <c r="D523" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="524" spans="1:4">
       <c r="B524" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="525" spans="1:4">
       <c r="C525" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="526" spans="1:4">
       <c r="C526" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="C527" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="D528" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1">
-      <c r="A530" t="s">
-        <v>716</v>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="B529" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="B534" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="H535" s="23"/>
+      <c r="I535" s="23"/>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="B538" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="C539" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="C540" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="B541" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
+      <c r="C542" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9">
+      <c r="B543" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
+      <c r="C544" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="B547" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="C548" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="B549" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="B550" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="C551" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="C552" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="B553" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="C554" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="B556" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="C557" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="C558" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="C560" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="D561" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="D562" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="D563" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="C564" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="B565" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="C566" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="C567" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="C568" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="B569" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="C570" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="C571" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="777">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7418,6 +7418,74 @@
   </si>
   <si>
     <t>动画与模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyframe Animation,关键帧动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做出一系列的关键帧,关键帧之间的动画用插值的技术去补全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Simulation,物理模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物理规律来推算模型的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mass Spring System,质点弹簧系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一系列相互连接的质点和弹簧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finite Element Method,FEM,有限元方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Particle Systems,粒子系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质上在定义个体与群体的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述骨骼系统,骨骼之间的拓扑结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward Kinematics,正向运动学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inverse Kinematics,逆向运动学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定上级骨骼的状态,算出下级骨骼的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定下级骨骼的位置,推算上级骨骼的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rigging,绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blend Shapes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motion Capture,动作捕捉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8538,8 +8606,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="802143" cy="347659"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2"/>
@@ -8575,6 +8643,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8714,7 +8783,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2"/>
@@ -10862,10 +10931,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I573"/>
+  <dimension ref="A1:I599"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A549" workbookViewId="0">
-      <selection activeCell="J571" sqref="J571"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A564" workbookViewId="0">
+      <selection activeCell="J581" sqref="J581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13335,6 +13404,91 @@
         <v>759</v>
       </c>
     </row>
+    <row r="574" spans="1:4">
+      <c r="B574" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="C575" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="577" spans="2:3">
+      <c r="B577" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="578" spans="2:3">
+      <c r="C578" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="580" spans="2:3">
+      <c r="B580" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="581" spans="2:3">
+      <c r="C581" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="583" spans="2:3">
+      <c r="B583" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="585" spans="2:3">
+      <c r="B585" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="586" spans="2:3">
+      <c r="C586" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="588" spans="2:3">
+      <c r="B588" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="589" spans="2:3">
+      <c r="C589" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="590" spans="2:3">
+      <c r="C590" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="592" spans="2:3">
+      <c r="B592" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="593" spans="2:3">
+      <c r="C593" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="595" spans="2:3">
+      <c r="B595" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="597" spans="2:3">
+      <c r="C597" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="599" spans="2:3">
+      <c r="B599" t="s">
+        <v>776</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="807">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7486,6 +7486,126 @@
   </si>
   <si>
     <t>Motion Capture,动作捕捉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚体模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流体模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1:误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题2:不稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧拉方法/前向欧拉方法/显示欧拉方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.中点法,Midpoint method / Modified Euler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.自适应步长法,Adaptive step size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.基于位置的方法,Position-based / Verlet integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.取上一步骤所得的位置与当前点的中点,取中点的速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.以中点的速度来模拟粒子的运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.按选定的步长计算粒子要到达的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.检查A与B的偏离程度,若偏离程度小,则表示没有必要取更小步长,取A点为结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.若偏离程度较大,则表示步长应该缩减为原先的一半,然后重复以上计算过程(递归)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.以选定步长计算位置,得到位置A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.以选定步长的一半计算位置,得到位置B'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.从B'出发,再以选定步长的一半计算位置,得到位置B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.隐式欧拉方法,Implicit methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用下一帧的速度来计算位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙格库塔方法,Runge-Kutta Families</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细了解要学数值分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是一个粒子的运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个粒子运动模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间还有旋转之类的计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可压缩流体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉格朗日方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质点法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧拉方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10931,10 +11051,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I599"/>
+  <dimension ref="A1:I633"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A564" workbookViewId="0">
-      <selection activeCell="J581" sqref="J581"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="F619" sqref="F619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13469,24 +13589,174 @@
         <v>771</v>
       </c>
     </row>
-    <row r="593" spans="2:3">
+    <row r="593" spans="1:4">
       <c r="C593" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="595" spans="2:3">
+    <row r="595" spans="1:4">
       <c r="B595" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="597" spans="2:3">
+    <row r="597" spans="1:4">
       <c r="C597" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="599" spans="2:3">
+    <row r="599" spans="1:4">
       <c r="B599" t="s">
         <v>776</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="B602" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="C603" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="C604" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="B605" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="C606" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="D607" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="D608" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="D609" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="C610" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="D611" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="D612" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="D613" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="D614" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="D615" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="C616" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="D617" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="D618" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="D619" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="C620" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4">
+      <c r="A622" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="B623" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="B624" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="B627" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="B628" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="B630" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="C631" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="B632" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="C633" t="s">
+        <v>806</v>
       </c>
     </row>
   </sheetData>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="第二章 计算机图形硬件" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="DX3D12初始化步骤" sheetId="3" r:id="rId3"/>
     <sheet name="渲染过程理解" sheetId="5" r:id="rId4"/>
     <sheet name="Games101课程" sheetId="6" r:id="rId5"/>
+    <sheet name="UE4-渲染基础" sheetId="7" r:id="rId6"/>
+    <sheet name="UE4-渲染管线" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="898">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7606,6 +7608,525 @@
   </si>
   <si>
     <t>网格法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时渲染方案都是由以上两者结合起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可延展性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计算与实时渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要能动态更改渲染的结果,使之适应各种不同性能的平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整动态阴影质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟渲染与前向渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟渲染效果好,但是抗锯齿一般,只能使用TTA扛锯齿方案,会有重影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟渲染支持更多的渲染特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前向渲染适合于移动平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚幻引擎默认使用延迟渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gbuffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟渲染中,Gbuffer中存放了所有渲染所需的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenderDoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试工具,可以捕获到渲染过程中的图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点与像素着色器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示帧数与每帧渲染时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示CPU与GPU渲染时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置帧率上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.shadowquality [level]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.maxfps [num]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象的生成与销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU时间包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game时间是CPU时间,负责与场景中的位移/旋转/变换有关的渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他有用的stat命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat rhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示渲染时的内存/显存使用情况,三角面与图元绘制调用数,DrawCall调用情况等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat scenerendering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示渲染管线各流程的相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat gpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染半透明(Translucent)材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4种最常见的造成大量渲染开销的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每多一层材质,都会多调用像素着色器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为半透明材质并不完全遮挡其后的材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂材质(比如使用了大量的噪声函数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量DrawCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawCall跟模型有关,每次渲染一个模型,都会调用一次DrawCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若场景有大量模型(哪怕简单模型),drawcall次数多了也会造成很大开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为每一个材质都相当于是一个shader,所以若一个模型上有多种材质,那么渲染这个模型就会有多次drawcall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawcall次数跟场景中的三角面数量关系不是太大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态阴影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态阴影的开销比动态光照大得多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态阴影得开销跟被投射的模型的三角面数量相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若需要使用很多动态阴影,那么要注意模型的面数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4渲染管线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几何渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光栅化以及GBuffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹理映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像素着色器以及材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态光/阴影构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态光/阴影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾效/半透明效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.4.5同时进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预处理阶段/预计算阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计算模型与对象的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后处理遮挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确定场景的具体哪些部分需要真正被渲染出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来处理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动画/物理模拟/AI逻辑/对象生成销毁隐藏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等等都属于跟物体位置有关的内容,都需要CPU先进行计算</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这部分通常是在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>渲染线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中进行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>此阶段一般会建立一个可见列表与一个不可见列表,用来确定哪些</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(而不是三角面)需要被渲染哪些不需要</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此部分混合使用4种不同的剔除方案,按以下顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离剔除,Distance Culling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视锥体剔除,Frustum Culling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计算可见性,Precomputed Visibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遮挡剔除,Occlusion Culling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将距离摄像机一定距离之外的对象剔除,不渲染(LOD),默认不开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将摄像机视野之外的对象剔除,总是开启,无法关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开销非常大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Freezerendering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命令用于冻结当前帧的遮挡,可用于调试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stat Initviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命令可供查看场景中的遮挡相关的信息</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11038,7 +11559,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11053,8 +11574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I633"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A597" workbookViewId="0">
-      <selection activeCell="F619" sqref="F619"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13765,4 +14286,513 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="24" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="24" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="C20" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="D21" s="24" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="C22" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="D23" s="24" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="C24" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="D25" s="24" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="D26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="E27" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="E28" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="E29" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="E30" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="E31" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="E32" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="D33" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="E34" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="E35" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="E36" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="E37" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="E38" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="D41" s="24" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="E42" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="D43" s="24" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="E44" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="D45" s="24" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" s="24" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="E50" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="E51" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="E56" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="E57" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="E58" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="E59" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="E62" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="E63" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="E64" t="s">
+        <v>863</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:G43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="21" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="21" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" t="s">
+        <v>883</v>
+      </c>
+      <c r="F16" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="F17" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="E18" t="s">
+        <v>884</v>
+      </c>
+      <c r="F18" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="F19" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="E20" t="s">
+        <v>885</v>
+      </c>
+      <c r="F20" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="F21" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="E22" t="s">
+        <v>886</v>
+      </c>
+      <c r="F22" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="F23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="21" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="21" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>865</v>
+      </c>
+      <c r="G27" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>873</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="971">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7879,10 +7879,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.3.4.5同时进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预处理阶段/预计算阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8063,18 +8059,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将距离摄像机一定距离之外的对象剔除,不渲染(LOD),默认不开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将摄像机视野之外的对象剔除,总是开启,无法关闭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开销非常大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8127,6 +8115,382 @@
       </rPr>
       <t>命令可供查看场景中的遮挡相关的信息</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4在渲染几何体时是逐对象渲染的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要先进行预深度通道计算,计算哪些像素实际上会被之后的对象所覆盖,避免重复渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在真正开始渲染时会对材质进行分组,同组一起渲染完再渲染其他组,以免频繁修改渲染流水线状态PSO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型上的每一种材质都会有一次drawcall,在渲染几何时,drawcall会对性能有重大影响,远超过三角面数量对性能的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量简单模型会调用多次drawcall,少量复杂模型面数多,但drawcall少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是,简单模型遮挡剔除、碰撞处理更为高效,而且在构建场景时更为灵活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所以需要两者折中,实操时,经常是用模块化的简单模型拼接好场景,然后合并其中一部分(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Merge Actor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般来说选择要合并的Actor,有以下一些经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的比较多且面数较少的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只合并使用同样材质的模型,否则会增加大量的drawcall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只合并同一区域的模型,否则会在遮挡剔除阶段变得非常低效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有碰撞或者碰撞检测非常简单的模型适合于合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小的或者只接受动态光照的网格体比较适合于合并(不用过多考虑光照贴图的额外消耗)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远距离的几何体适合合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将距离摄像机一定距离之外的对象剔除,不渲染(LOD),默认不开启,可以使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cull Distance Volume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将范围内的所有物体都开启距离剔除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>默认关闭,可以使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precomputed Visibility Volume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在范围内开启这一功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例化静态网格体渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些模型与材质一样的物体,可以将其设置为实例化静态网格体,然后在渲染中一次将其全部一起渲染,减少drawcall数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不默认开启,是因为如果所有物体都是这样,那么会有大量的对比判断,会极大的增大开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4默认模型实例化一次然后保存在内存中,如果场景中有多个该模型,会多次渲染,这样可以节省内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOD与HLOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOD,在一定距离之外将模型替换成一个更简单的低面数模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLOD,分层次LOD,将一些对象编组,在一定距离之外把这些对象用一个低面数模型来替代,同时减少面数跟drawcall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.4.5并行进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点着色器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责将模型顶点从Local坐标转换到世界坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还能处理顶点的世界坐标偏移,实现顶点动画(水面、草地等等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染管线各个流程的渲染结果会输出到GBuffer中,最后合并输出成最终图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过度着色,overshading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.着色范围超过了本应有的像素区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.对像素重复着色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过度着色的两种情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么情况下容易过度着色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像素密度越大,过度着色越严重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离越远,像素越可能过度着色(使用LOD可以缓解)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前向渲染管线比延迟渲染管线会更容易被过度渲染影响性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光栅化之后,结果输出到GBuffer,之后的其他处理跟几何体的关系就不大了,都会是基于GBuffer的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenderDoc中,可以展示几个Gbuffer所包含的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT0,场景颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT2,GBufferB,RGB分别是金属度、高光、粗糙度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT1,GBuffA,像素法线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT3,GBufferC,不带任何光照效果的图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹理格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC/DXTC(DirectX压缩格式),BC1(DXTC1) = 不带alpha通道,BC3(DXTC5) = 带alpha通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法向贴图有特殊压缩格式,一般只存储R值跟G值,B值通过计算得出(法线量只表示方向,所以是单位向量,长度为1,所以可以在已知两个分量的情况下计算出第3个分量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹理大小影响带宽跟内存,但不怎么影响渲染效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mipmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹理大小设置为2的幂,UE4才会自动存储相应的MipMap以及进行纹理流送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像素着色器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改像素颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于实现光照、雾、反射、颜色校正、后处理等等等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4的着色器源代码位于Engine/Shaders/Private中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4中三种反射实现方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预先计算,速度很快,但是效果不好,只能局部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reflection Capture Actor专门用来捕获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射捕获,Reflection Capture,在某个点捕获立方体贴图(环境贴图)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面反射,Planar Reflections,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以实时反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能实时反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能正确作用于平滑表面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确作用所有物体,而且可以实时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很精确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有噪点,且损耗很大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能反射当前可见的物体(在屏幕上的)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在后处理体积中进行设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕空间反射,Screen Space Reflections(SSR),通过GBuffer中的信息,把反射给计算出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4通常会同时运用几种反射方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡未烘培前,加载关卡时,会预计算反射捕获,所以若场景中放置太多,会导致加载时间过长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般会放置一个大的反射捕获Actor来覆盖整个场景,然后在一些反射程度比较高的物体边上放置相对较小的反射捕获Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面反射一般不用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若运行平台性能有限(低端移动平台),考虑关闭SSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR一旦使用,可以设置其质量高一些,减少噪点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.SSR.Quality [x]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值是3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空光可以给整个场景提供一个较低质量的立方体贴图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11574,8 +11938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I633"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14592,10 +14956,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G43"/>
+  <dimension ref="A4:G116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14610,109 +14974,109 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="21" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="C8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="D12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="D13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="E14" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="E15" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="E16" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F16" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="F17" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="E18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="F19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="E20" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" t="s">
-        <v>894</v>
+        <v>910</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="E22" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F22" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="F23" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="21" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="C25" s="21" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -14723,70 +15087,460 @@
         <v>865</v>
       </c>
       <c r="G27" t="s">
-        <v>874</v>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29">
+      <c r="C29" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="D32" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="D33" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="D34" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="D35" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="E38">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F38" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="D43" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="D44" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="D45" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="D47" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="D48" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="C50" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="D51" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="D52" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
+    <row r="55" spans="1:5">
+      <c r="C55" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="C56" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="D57" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="E58" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="E59" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="D60" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="E61" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="E62" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="E63" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="C64" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="D65" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="E66" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="E67" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="E68" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="E69" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
         <v>4</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B71" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+    <row r="72" spans="1:5">
+      <c r="C72" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="D73" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="D74" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="C75" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="C76" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="C77" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
         <v>5</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B79" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+    <row r="80" spans="1:5">
+      <c r="C80" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="D81" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="D82" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="C83" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B85" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
+    <row r="86" spans="1:6">
+      <c r="C86" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="F88" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="F89" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="F90" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="F92" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="F93" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="F95" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="F96" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="F97" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="F98" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="F99" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="F100" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="C101" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="C102" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="C103" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="C104" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="C105" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="C106" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="C107" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="E107" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="C108" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B110" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
+    <row r="112" spans="1:6">
+      <c r="A112">
         <v>8</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B112" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
+    <row r="114" spans="1:2">
+      <c r="A114">
         <v>9</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B114" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
+    <row r="116" spans="1:2">
+      <c r="A116">
         <v>10</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B116" t="s">
         <v>873</v>
       </c>
     </row>

--- a/图形学学习笔记.xlsx
+++ b/图形学学习笔记.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="1043">
   <si>
     <t>名词中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7863,10 +7863,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>静态光/阴影构建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动态光/阴影</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8491,6 +8487,298 @@
   </si>
   <si>
     <t>天空光可以给整个场景提供一个较低质量的立方体贴图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态光跟阴影一般在预计算或者预渲染阶段进行处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预先烘培并储存光照贴图,牺牲内存空间换取运行效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚幻4的LightMass负责烘培光照贴图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在世界设置中进行相关设置,另外,还需要往场景中添加一个LightmassImportanceVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightmassImportanceVolume内的场景有更好的光照效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间接光照缓存,Indirect Lighting Cache,ILC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决动态模型上的预计算光照问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在场景中放置一个个点,在每个点都记录当前的间接光照信息,当动态模型移动到某一位置时,直接读取最近的缓存点的亮度信息并进行光照计算(若要提高画质,可以选择取最近的5X5X5个点进行计算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightmass Character Indirect Detail Volume,Lightmass角色间接细节体积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成ILC点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态光/阴影构建(实际在预计算/预渲染环节就会构建烘培完毕)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要在模型上运用静态光照,则模型必须生成Lightmap UV(可以在建模软件中生成,也可以导入UE4后再生成)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下因素会减慢光照贴图烘培速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光照贴图分辨率越高,烘培越慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光源或者模型数量越多,烘培越慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更高级的画质设置,会减慢烘培速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光源的衰减半径或者光源半径越大,烘培越慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好保持光照贴图的分辨率一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态阴影非常影响性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4的方案中动态阴影基本只能渲染硬阴影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4种动态阴影方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规动态阴影,Regular Dynamic Shadows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐对象阴影Per Object Shadows / 固定光源阴影Stationary Light Shadows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用于场景中的可移动光源,形成的阴影边缘非常锐利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合使用静态光的光照贴图与动态阴影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级联阴影贴图,Cascaded Shadow Maps(CSM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用于固定光源上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用于方向光光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据距离决定是否渲染动态阴影与切换动态阴影质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离场阴影,Distance Field Shadows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常用于渲染大型场景或者室外的阴影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染开放世界的动态阴影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用距离场信息来计算阴影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚幻4中真正实用的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用体积纹理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态光照在如今的延迟渲染器以及前向渲染器中实质上消耗的性能并不算多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离光源越近,受到影响的像素就越多,消耗也就越大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受影响像素越多,阴影渲染的消耗就越大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少光源的互相重叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光源影响范围越大,消耗越大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型面数对动态阴影的消耗影响很大,低模投射的动态阴影消耗小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用距离场来减少面数影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4中使用距离雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.大气雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.指数雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟渲染在渲染半透明方面是弱项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前向渲染中渲染半透明要简单得多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在前向渲染中渲染好半透明,然后跟延迟渲染得效果合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般用后处理做的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Bloom,泛光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景深或者其他类型的模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lensflares一些类型的镜头炫光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Shafts,光束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vignette,虚光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonemapping色调映射/颜色分级Color Correction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exposure,曝光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motion Blur,运动模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个网格中,分为16X16个网格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从左到右红色值从0到255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上到下绿色值从0到255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16种蓝色值不同的网格,从0到255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计存储4096种颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色分级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4的延迟渲染管线,着色采取GGX着色模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11938,8 +12226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I633"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14656,7 +14944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
@@ -14956,10 +15244,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G116"/>
+  <dimension ref="A4:G187"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14974,109 +15262,109 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="C8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="21" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="D12" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="D13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="E14" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="E15" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="E16" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F16" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="F17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="E18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="F19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="E20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="E22" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F22" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="F23" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="21" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="C25" s="21" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -15087,47 +15375,47 @@
         <v>865</v>
       </c>
       <c r="G27" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="C28" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="C29" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="C30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="C31" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="D32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="D33" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="D34" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="D35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="36" spans="3:6">
@@ -15135,7 +15423,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="37" spans="3:6">
@@ -15143,7 +15431,7 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="38" spans="3:6">
@@ -15151,7 +15439,7 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="39" spans="3:6">
@@ -15159,7 +15447,7 @@
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="40" spans="3:6">
@@ -15167,7 +15455,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="41" spans="3:6">
@@ -15175,57 +15463,57 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="D43" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="D44" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="D45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="C46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="D47" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="D48" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="C50" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="D51" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="D52" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -15238,310 +15526,654 @@
     </row>
     <row r="55" spans="1:5">
       <c r="C55" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="C56" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="D57" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="E58" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="E59" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="D60" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="E61" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="E62" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="E63" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="C64" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="D65" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="E66" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="E67" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="E68" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="E69" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="C70" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="C73" t="s">
         <v>936</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71">
-        <v>4</v>
-      </c>
-      <c r="B71" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="C72" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="D73" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="D74" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="C75" t="s">
-        <v>940</v>
+      <c r="D75" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="C76" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="C77" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="C78" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="C81" t="s">
         <v>942</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="C80" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="D81" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="D82" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="D83" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="C84" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="C83" t="s">
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="C87" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>6</v>
-      </c>
-      <c r="B85" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="C86" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="D87">
+    <row r="88" spans="1:6">
+      <c r="D88">
         <v>1</v>
       </c>
-      <c r="E87" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="F88" t="s">
-        <v>948</v>
+      <c r="E88" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="F89" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="F90" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="D91">
+      <c r="F91" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="D92">
         <v>2</v>
       </c>
-      <c r="E91" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="F92" t="s">
-        <v>952</v>
+      <c r="E92" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="F93" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="D94">
+      <c r="F94" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="D95">
         <v>3</v>
       </c>
-      <c r="E94" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="F95" t="s">
-        <v>955</v>
+      <c r="E95" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="F96" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="F97" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="F98" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="F99" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="F100" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="C101" t="s">
-        <v>962</v>
+      <c r="F101" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="C102" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="C103" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="C104" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="C105" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="C106" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="C107" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="C108" s="24" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="C107" s="24" t="s">
+      <c r="E108" t="s">
         <v>968</v>
       </c>
-      <c r="E107" t="s">
+    </row>
+    <row r="109" spans="1:6">
+      <c r="C109" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="C108" t="s">
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="C112" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>7</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="113" spans="3:5">
+      <c r="C113" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5">
+      <c r="C114" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5">
+      <c r="C115" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5">
+      <c r="D116" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5">
+      <c r="C117" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5">
+      <c r="D118" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5">
+      <c r="D119" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5">
+      <c r="C120" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5">
+      <c r="D121" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5">
+      <c r="C122" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5">
+      <c r="C123" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5">
+      <c r="D124" t="s">
+        <v>983</v>
+      </c>
+      <c r="E124" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5">
+      <c r="D125" t="s">
+        <v>984</v>
+      </c>
+      <c r="E125" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5">
+      <c r="D126" t="s">
+        <v>985</v>
+      </c>
+      <c r="E126" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5">
+      <c r="D127" t="s">
+        <v>986</v>
+      </c>
+      <c r="E127" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5">
+      <c r="C128" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>8</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="132" spans="1:5">
+      <c r="C132" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="C133" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="C134" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="D135" t="s">
+        <v>995</v>
+      </c>
+      <c r="E135" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="E136" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="D138" t="s">
+        <v>996</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="E139" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="E140" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="D142" t="s">
+        <v>997</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="E143" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="E144" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5">
+      <c r="E145" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5">
+      <c r="D147" t="s">
+        <v>998</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5">
+      <c r="E148" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5">
+      <c r="E149" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5">
+      <c r="E150" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5">
+      <c r="E151" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5">
+      <c r="C153" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5">
+      <c r="C154" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5">
+      <c r="C155" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5">
+      <c r="C156" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5">
+      <c r="C157" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5">
+      <c r="C158" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5">
+      <c r="C159" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>9</v>
+      </c>
+      <c r="B161" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
-        <v>9</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="162" spans="1:4">
+      <c r="C162" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="D163" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="D164" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="C165" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="C167" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="C168" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="C169" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
-        <v>10</v>
-      </c>
-      <c r="B116" t="s">
-        <v>873</v>
+    <row r="172" spans="1:4">
+      <c r="C172" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="D173" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="D174" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="D175" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="D176" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4">
+      <c r="D177" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4">
+      <c r="D178" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4">
+      <c r="D179" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4">
+      <c r="D180" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4">
+      <c r="C182" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4">
+      <c r="C183" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4">
+      <c r="C184" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4">
+      <c r="D185" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4">
+      <c r="D186" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4">
+      <c r="C187" t="s">
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
